--- a/Code-Abage/BV/automated+training+testing/auswertug.xlsx
+++ b/Code-Abage/BV/automated+training+testing/auswertug.xlsx
@@ -312,6 +312,12 @@
     <t>model_bs64_ep60_lr0.01_lfhuber.keras</t>
   </si>
   <si>
+    <t>custom_loss</t>
+  </si>
+  <si>
+    <t>huber</t>
+  </si>
+  <si>
     <t xml:space="preserve">Row Labels</t>
   </si>
   <si>
@@ -319,9 +325,6 @@
   </si>
   <si>
     <t>25</t>
-  </si>
-  <si>
-    <t>custom_loss</t>
   </si>
   <si>
     <t>0.0001</t>
@@ -340,9 +343,6 @@
   </si>
   <si>
     <t>0.01</t>
-  </si>
-  <si>
-    <t>huber</t>
   </si>
   <si>
     <t>30</t>
@@ -373,7 +373,6 @@
     </font>
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Courier New"/>
     </font>
   </fonts>
@@ -1107,6 +1106,14 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:smooth val="0"/>
         <c:axId val="1866169563"/>
         <c:axId val="1866169564"/>
@@ -1492,6 +1499,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -1716,8 +1724,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="6114142" y="282121"/>
-      <a:ext cx="4555670" cy="2726870"/>
+      <a:off x="6204857" y="282121"/>
+      <a:ext cx="14015356" cy="2726870"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -2107,8 +2115,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="864960" y="3122839"/>
-      <a:ext cx="4555669" cy="2726869"/>
+      <a:off x="73478" y="6376306"/>
+      <a:ext cx="18668999" cy="2781298"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -2498,8 +2506,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="6077856" y="3122839"/>
-      <a:ext cx="4555669" cy="2728684"/>
+      <a:off x="6159499" y="3122839"/>
+      <a:ext cx="14060714" cy="3072945"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -4894,7 +4902,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>545646</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>119742</xdr:rowOff>
+      <xdr:rowOff>119741</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4923,8 +4931,8 @@
       <xdr:rowOff>100692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>337456</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>480785</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>106135</xdr:rowOff>
     </xdr:to>
@@ -4936,8 +4944,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6114142" y="282121"/>
-        <a:ext cx="4555670" cy="2726870"/>
+        <a:off x="6204857" y="282121"/>
+        <a:ext cx="14015356" cy="2726870"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4949,16 +4957,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38553</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>73478</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>558344</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>43994</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>454478</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>89804</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4968,8 +4976,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="864960" y="3122839"/>
-        <a:ext cx="4555669" cy="2726869"/>
+        <a:off x="73478" y="6376306"/>
+        <a:ext cx="18668999" cy="2781298"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4982,15 +4990,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>607785</xdr:colOff>
+      <xdr:colOff>607784</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>301169</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>45809</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>480785</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5000,8 +5008,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6077856" y="3122839"/>
-        <a:ext cx="4555669" cy="2728684"/>
+        <a:off x="6159499" y="3122839"/>
+        <a:ext cx="14060714" cy="3072945"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5017,7 +5025,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="90">
   <cacheSource type="worksheet">
-    <worksheetSource name="Table1[]"/>
+    <worksheetSource ref="A1:F91" sheet="table"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="model_name" numFmtId="0">
@@ -6438,8 +6446,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table1" ref="$A$1:$F$91">
   <autoFilter ref="$A$1:$F$91"/>
-  <sortState ref="B1:B91">
-    <sortCondition descending="0" ref="B1:B91"/>
+  <sortState ref="D1:D91">
+    <sortCondition descending="0" ref="D1:D91"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="model_name"/>
@@ -6986,19 +6994,19 @@
         <v>107</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>MID(A2,FIND("bs",A2)+2,FIND("_ep",A2)-FIND("bs",A2)-2)</f>
+        <f t="shared" ref="C2:C9" si="0">MID(A2,FIND("bs",A2)+2,FIND("_ep",A2)-FIND("bs",A2)-2)</f>
         <v>16</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>MID(A2,FIND("ep",A2)+2,FIND("_lr",A2)-FIND("ep",A2)-2)</f>
+        <f t="shared" ref="D2:D9" si="1">MID(A2,FIND("ep",A2)+2,FIND("_lr",A2)-FIND("ep",A2)-2)</f>
         <v>25</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>MID(A2,FIND("lr",A2)+2,FIND("_lf",A2)-FIND("lr",A2)-2)</f>
+        <f t="shared" ref="E2:E9" si="2">MID(A2,FIND("lr",A2)+2,FIND("_lf",A2)-FIND("lr",A2)-2)</f>
         <v>0.0001</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A2)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A2)),"custom_loss",""))</f>
+        <f t="shared" ref="F2:F9" si="3">IF(ISNUMBER(SEARCH("huber",A2)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A2)),"custom_loss",""))</f>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7010,19 +7018,19 @@
         <v>95</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>MID(A3,FIND("bs",A3)+2,FIND("_ep",A3)-FIND("bs",A3)-2)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>MID(A3,FIND("ep",A3)+2,FIND("_lr",A3)-FIND("ep",A3)-2)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>MID(A3,FIND("lr",A3)+2,FIND("_lf",A3)-FIND("lr",A3)-2)</f>
+        <f t="shared" si="2"/>
         <v>0.0001</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A3)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A3)),"custom_loss",""))</f>
+        <f t="shared" si="3"/>
         <v>huber</v>
       </c>
     </row>
@@ -7034,19 +7042,19 @@
         <v>118</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>MID(A4,FIND("bs",A4)+2,FIND("_ep",A4)-FIND("bs",A4)-2)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>MID(A4,FIND("ep",A4)+2,FIND("_lr",A4)-FIND("ep",A4)-2)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>MID(A4,FIND("lr",A4)+2,FIND("_lf",A4)-FIND("lr",A4)-2)</f>
+        <f t="shared" si="2"/>
         <v>0.001</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A4)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A4)),"custom_loss",""))</f>
+        <f t="shared" si="3"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7058,19 +7066,19 @@
         <v>116</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>MID(A5,FIND("bs",A5)+2,FIND("_ep",A5)-FIND("bs",A5)-2)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>MID(A5,FIND("ep",A5)+2,FIND("_lr",A5)-FIND("ep",A5)-2)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>MID(A5,FIND("lr",A5)+2,FIND("_lf",A5)-FIND("lr",A5)-2)</f>
+        <f t="shared" si="2"/>
         <v>0.001</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A5)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A5)),"custom_loss",""))</f>
+        <f t="shared" si="3"/>
         <v>huber</v>
       </c>
     </row>
@@ -7082,19 +7090,19 @@
         <v>67</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>MID(A6,FIND("bs",A6)+2,FIND("_ep",A6)-FIND("bs",A6)-2)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>MID(A6,FIND("ep",A6)+2,FIND("_lr",A6)-FIND("ep",A6)-2)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>MID(A6,FIND("lr",A6)+2,FIND("_lf",A6)-FIND("lr",A6)-2)</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A6)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A6)),"custom_loss",""))</f>
+        <f t="shared" si="3"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7106,19 +7114,19 @@
         <v>69</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>MID(A7,FIND("bs",A7)+2,FIND("_ep",A7)-FIND("bs",A7)-2)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>MID(A7,FIND("ep",A7)+2,FIND("_lr",A7)-FIND("ep",A7)-2)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>MID(A7,FIND("lr",A7)+2,FIND("_lf",A7)-FIND("lr",A7)-2)</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A7)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A7)),"custom_loss",""))</f>
+        <f t="shared" si="3"/>
         <v>huber</v>
       </c>
     </row>
@@ -7130,19 +7138,19 @@
         <v>99</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>MID(A8,FIND("bs",A8)+2,FIND("_ep",A8)-FIND("bs",A8)-2)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>MID(A8,FIND("ep",A8)+2,FIND("_lr",A8)-FIND("ep",A8)-2)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>MID(A8,FIND("lr",A8)+2,FIND("_lf",A8)-FIND("lr",A8)-2)</f>
+        <f t="shared" si="2"/>
         <v>0.0001</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A8)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A8)),"custom_loss",""))</f>
+        <f t="shared" si="3"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7154,19 +7162,19 @@
         <v>100</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>MID(A9,FIND("bs",A9)+2,FIND("_ep",A9)-FIND("bs",A9)-2)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>MID(A9,FIND("ep",A9)+2,FIND("_lr",A9)-FIND("ep",A9)-2)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>MID(A9,FIND("lr",A9)+2,FIND("_lf",A9)-FIND("lr",A9)-2)</f>
+        <f t="shared" si="2"/>
         <v>0.0001</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A9)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A9)),"custom_loss",""))</f>
+        <f t="shared" si="3"/>
         <v>huber</v>
       </c>
     </row>
@@ -7178,19 +7186,19 @@
         <v>101</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>MID(A10,FIND("bs",A10)+2,FIND("_ep",A10)-FIND("bs",A10)-2)</f>
+        <f t="shared" ref="C10:C73" si="4">MID(A10,FIND("bs",A10)+2,FIND("_ep",A10)-FIND("bs",A10)-2)</f>
         <v>16</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>MID(A10,FIND("ep",A10)+2,FIND("_lr",A10)-FIND("ep",A10)-2)</f>
+        <f t="shared" ref="D10:D73" si="5">MID(A10,FIND("ep",A10)+2,FIND("_lr",A10)-FIND("ep",A10)-2)</f>
         <v>30</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>MID(A10,FIND("lr",A10)+2,FIND("_lf",A10)-FIND("lr",A10)-2)</f>
+        <f t="shared" ref="E10:E73" si="6">MID(A10,FIND("lr",A10)+2,FIND("_lf",A10)-FIND("lr",A10)-2)</f>
         <v>0.001</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A10)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A10)),"custom_loss",""))</f>
+        <f t="shared" ref="F10:F73" si="7">IF(ISNUMBER(SEARCH("huber",A10)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A10)),"custom_loss",""))</f>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7202,19 +7210,19 @@
         <v>108</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>MID(A11,FIND("bs",A11)+2,FIND("_ep",A11)-FIND("bs",A11)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>MID(A11,FIND("ep",A11)+2,FIND("_lr",A11)-FIND("ep",A11)-2)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>MID(A11,FIND("lr",A11)+2,FIND("_lf",A11)-FIND("lr",A11)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A11)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A11)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7226,19 +7234,19 @@
         <v>72</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>MID(A12,FIND("bs",A12)+2,FIND("_ep",A12)-FIND("bs",A12)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>MID(A12,FIND("ep",A12)+2,FIND("_lr",A12)-FIND("ep",A12)-2)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>MID(A12,FIND("lr",A12)+2,FIND("_lf",A12)-FIND("lr",A12)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A12)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A12)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7250,19 +7258,19 @@
         <v>83</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>MID(A13,FIND("bs",A13)+2,FIND("_ep",A13)-FIND("bs",A13)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>MID(A13,FIND("ep",A13)+2,FIND("_lr",A13)-FIND("ep",A13)-2)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>MID(A13,FIND("lr",A13)+2,FIND("_lf",A13)-FIND("lr",A13)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A13)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A13)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7274,19 +7282,19 @@
         <v>112</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>MID(A14,FIND("bs",A14)+2,FIND("_ep",A14)-FIND("bs",A14)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>MID(A14,FIND("ep",A14)+2,FIND("_lr",A14)-FIND("ep",A14)-2)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>MID(A14,FIND("lr",A14)+2,FIND("_lf",A14)-FIND("lr",A14)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A14)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A14)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7298,19 +7306,19 @@
         <v>102</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>MID(A15,FIND("bs",A15)+2,FIND("_ep",A15)-FIND("bs",A15)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>MID(A15,FIND("ep",A15)+2,FIND("_lr",A15)-FIND("ep",A15)-2)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>MID(A15,FIND("lr",A15)+2,FIND("_lf",A15)-FIND("lr",A15)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A15)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A15)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7322,19 +7330,19 @@
         <v>117</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>MID(A16,FIND("bs",A16)+2,FIND("_ep",A16)-FIND("bs",A16)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>MID(A16,FIND("ep",A16)+2,FIND("_lr",A16)-FIND("ep",A16)-2)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>MID(A16,FIND("lr",A16)+2,FIND("_lf",A16)-FIND("lr",A16)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A16)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A16)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7346,19 +7354,19 @@
         <v>117</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>MID(A17,FIND("bs",A17)+2,FIND("_ep",A17)-FIND("bs",A17)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>MID(A17,FIND("ep",A17)+2,FIND("_lr",A17)-FIND("ep",A17)-2)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>MID(A17,FIND("lr",A17)+2,FIND("_lf",A17)-FIND("lr",A17)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A17)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A17)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7370,19 +7378,19 @@
         <v>71</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>MID(A18,FIND("bs",A18)+2,FIND("_ep",A18)-FIND("bs",A18)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>MID(A18,FIND("ep",A18)+2,FIND("_lr",A18)-FIND("ep",A18)-2)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>MID(A18,FIND("lr",A18)+2,FIND("_lf",A18)-FIND("lr",A18)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A18)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A18)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7394,19 +7402,19 @@
         <v>78</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>MID(A19,FIND("bs",A19)+2,FIND("_ep",A19)-FIND("bs",A19)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>MID(A19,FIND("ep",A19)+2,FIND("_lr",A19)-FIND("ep",A19)-2)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>MID(A19,FIND("lr",A19)+2,FIND("_lf",A19)-FIND("lr",A19)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A19)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A19)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7418,19 +7426,19 @@
         <v>96</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>MID(A20,FIND("bs",A20)+2,FIND("_ep",A20)-FIND("bs",A20)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>MID(A20,FIND("ep",A20)+2,FIND("_lr",A20)-FIND("ep",A20)-2)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>MID(A20,FIND("lr",A20)+2,FIND("_lf",A20)-FIND("lr",A20)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A20)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A20)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7442,19 +7450,19 @@
         <v>104</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>MID(A21,FIND("bs",A21)+2,FIND("_ep",A21)-FIND("bs",A21)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>MID(A21,FIND("ep",A21)+2,FIND("_lr",A21)-FIND("ep",A21)-2)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>MID(A21,FIND("lr",A21)+2,FIND("_lf",A21)-FIND("lr",A21)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A21)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A21)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7466,19 +7474,19 @@
         <v>112</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>MID(A22,FIND("bs",A22)+2,FIND("_ep",A22)-FIND("bs",A22)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>MID(A22,FIND("ep",A22)+2,FIND("_lr",A22)-FIND("ep",A22)-2)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>MID(A22,FIND("lr",A22)+2,FIND("_lf",A22)-FIND("lr",A22)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A22)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A22)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7490,19 +7498,19 @@
         <v>121</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>MID(A23,FIND("bs",A23)+2,FIND("_ep",A23)-FIND("bs",A23)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>MID(A23,FIND("ep",A23)+2,FIND("_lr",A23)-FIND("ep",A23)-2)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>MID(A23,FIND("lr",A23)+2,FIND("_lf",A23)-FIND("lr",A23)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A23)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A23)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7514,19 +7522,19 @@
         <v>69</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>MID(A24,FIND("bs",A24)+2,FIND("_ep",A24)-FIND("bs",A24)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>MID(A24,FIND("ep",A24)+2,FIND("_lr",A24)-FIND("ep",A24)-2)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>MID(A24,FIND("lr",A24)+2,FIND("_lf",A24)-FIND("lr",A24)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A24)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A24)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7538,19 +7546,19 @@
         <v>73</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>MID(A25,FIND("bs",A25)+2,FIND("_ep",A25)-FIND("bs",A25)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>MID(A25,FIND("ep",A25)+2,FIND("_lr",A25)-FIND("ep",A25)-2)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>MID(A25,FIND("lr",A25)+2,FIND("_lf",A25)-FIND("lr",A25)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A25)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A25)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7562,19 +7570,19 @@
         <v>104</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>MID(A26,FIND("bs",A26)+2,FIND("_ep",A26)-FIND("bs",A26)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>MID(A26,FIND("ep",A26)+2,FIND("_lr",A26)-FIND("ep",A26)-2)</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>MID(A26,FIND("lr",A26)+2,FIND("_lf",A26)-FIND("lr",A26)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A26)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A26)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7586,19 +7594,19 @@
         <v>102</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>MID(A27,FIND("bs",A27)+2,FIND("_ep",A27)-FIND("bs",A27)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>MID(A27,FIND("ep",A27)+2,FIND("_lr",A27)-FIND("ep",A27)-2)</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>MID(A27,FIND("lr",A27)+2,FIND("_lf",A27)-FIND("lr",A27)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A27)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A27)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7610,19 +7618,19 @@
         <v>113</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f>MID(A28,FIND("bs",A28)+2,FIND("_ep",A28)-FIND("bs",A28)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>MID(A28,FIND("ep",A28)+2,FIND("_lr",A28)-FIND("ep",A28)-2)</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>MID(A28,FIND("lr",A28)+2,FIND("_lf",A28)-FIND("lr",A28)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A28)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A28)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7634,19 +7642,19 @@
         <v>101</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>MID(A29,FIND("bs",A29)+2,FIND("_ep",A29)-FIND("bs",A29)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>MID(A29,FIND("ep",A29)+2,FIND("_lr",A29)-FIND("ep",A29)-2)</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>MID(A29,FIND("lr",A29)+2,FIND("_lf",A29)-FIND("lr",A29)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A29)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A29)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7658,19 +7666,19 @@
         <v>72</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f>MID(A30,FIND("bs",A30)+2,FIND("_ep",A30)-FIND("bs",A30)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>MID(A30,FIND("ep",A30)+2,FIND("_lr",A30)-FIND("ep",A30)-2)</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>MID(A30,FIND("lr",A30)+2,FIND("_lf",A30)-FIND("lr",A30)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A30)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A30)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7682,19 +7690,19 @@
         <v>75</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f>MID(A31,FIND("bs",A31)+2,FIND("_ep",A31)-FIND("bs",A31)-2)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>MID(A31,FIND("ep",A31)+2,FIND("_lr",A31)-FIND("ep",A31)-2)</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f>MID(A31,FIND("lr",A31)+2,FIND("_lf",A31)-FIND("lr",A31)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A31)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A31)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7706,19 +7714,19 @@
         <v>93</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>MID(A32,FIND("bs",A32)+2,FIND("_ep",A32)-FIND("bs",A32)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>MID(A32,FIND("ep",A32)+2,FIND("_lr",A32)-FIND("ep",A32)-2)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f>MID(A32,FIND("lr",A32)+2,FIND("_lf",A32)-FIND("lr",A32)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A32)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A32)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7730,19 +7738,19 @@
         <v>101</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>MID(A33,FIND("bs",A33)+2,FIND("_ep",A33)-FIND("bs",A33)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f>MID(A33,FIND("ep",A33)+2,FIND("_lr",A33)-FIND("ep",A33)-2)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f>MID(A33,FIND("lr",A33)+2,FIND("_lf",A33)-FIND("lr",A33)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A33)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A33)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7754,19 +7762,19 @@
         <v>103</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f>MID(A34,FIND("bs",A34)+2,FIND("_ep",A34)-FIND("bs",A34)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f>MID(A34,FIND("ep",A34)+2,FIND("_lr",A34)-FIND("ep",A34)-2)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f>MID(A34,FIND("lr",A34)+2,FIND("_lf",A34)-FIND("lr",A34)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A34)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A34)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7778,19 +7786,19 @@
         <v>108</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f>MID(A35,FIND("bs",A35)+2,FIND("_ep",A35)-FIND("bs",A35)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>MID(A35,FIND("ep",A35)+2,FIND("_lr",A35)-FIND("ep",A35)-2)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f>MID(A35,FIND("lr",A35)+2,FIND("_lf",A35)-FIND("lr",A35)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A35)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A35)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7802,19 +7810,19 @@
         <v>71</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f>MID(A36,FIND("bs",A36)+2,FIND("_ep",A36)-FIND("bs",A36)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>MID(A36,FIND("ep",A36)+2,FIND("_lr",A36)-FIND("ep",A36)-2)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f>MID(A36,FIND("lr",A36)+2,FIND("_lf",A36)-FIND("lr",A36)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A36)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A36)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7826,19 +7834,19 @@
         <v>70</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f>MID(A37,FIND("bs",A37)+2,FIND("_ep",A37)-FIND("bs",A37)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f>MID(A37,FIND("ep",A37)+2,FIND("_lr",A37)-FIND("ep",A37)-2)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>MID(A37,FIND("lr",A37)+2,FIND("_lf",A37)-FIND("lr",A37)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A37)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A37)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7850,19 +7858,19 @@
         <v>106</v>
       </c>
       <c r="C38" s="1" t="str">
-        <f>MID(A38,FIND("bs",A38)+2,FIND("_ep",A38)-FIND("bs",A38)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f>MID(A38,FIND("ep",A38)+2,FIND("_lr",A38)-FIND("ep",A38)-2)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>MID(A38,FIND("lr",A38)+2,FIND("_lf",A38)-FIND("lr",A38)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A38)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A38)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7874,19 +7882,19 @@
         <v>96</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f>MID(A39,FIND("bs",A39)+2,FIND("_ep",A39)-FIND("bs",A39)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f>MID(A39,FIND("ep",A39)+2,FIND("_lr",A39)-FIND("ep",A39)-2)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>MID(A39,FIND("lr",A39)+2,FIND("_lf",A39)-FIND("lr",A39)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A39)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A39)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7898,19 +7906,19 @@
         <v>91</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f>MID(A40,FIND("bs",A40)+2,FIND("_ep",A40)-FIND("bs",A40)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f>MID(A40,FIND("ep",A40)+2,FIND("_lr",A40)-FIND("ep",A40)-2)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>MID(A40,FIND("lr",A40)+2,FIND("_lf",A40)-FIND("lr",A40)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A40)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A40)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7922,19 +7930,19 @@
         <v>110</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f>MID(A41,FIND("bs",A41)+2,FIND("_ep",A41)-FIND("bs",A41)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f>MID(A41,FIND("ep",A41)+2,FIND("_lr",A41)-FIND("ep",A41)-2)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>MID(A41,FIND("lr",A41)+2,FIND("_lf",A41)-FIND("lr",A41)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A41)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A41)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7946,19 +7954,19 @@
         <v>76</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f>MID(A42,FIND("bs",A42)+2,FIND("_ep",A42)-FIND("bs",A42)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f>MID(A42,FIND("ep",A42)+2,FIND("_lr",A42)-FIND("ep",A42)-2)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>MID(A42,FIND("lr",A42)+2,FIND("_lf",A42)-FIND("lr",A42)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A42)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A42)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -7970,19 +7978,19 @@
         <v>129</v>
       </c>
       <c r="C43" s="1" t="str">
-        <f>MID(A43,FIND("bs",A43)+2,FIND("_ep",A43)-FIND("bs",A43)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f>MID(A43,FIND("ep",A43)+2,FIND("_lr",A43)-FIND("ep",A43)-2)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>MID(A43,FIND("lr",A43)+2,FIND("_lf",A43)-FIND("lr",A43)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A43)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A43)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -7994,19 +8002,19 @@
         <v>104</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f>MID(A44,FIND("bs",A44)+2,FIND("_ep",A44)-FIND("bs",A44)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f>MID(A44,FIND("ep",A44)+2,FIND("_lr",A44)-FIND("ep",A44)-2)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>MID(A44,FIND("lr",A44)+2,FIND("_lf",A44)-FIND("lr",A44)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A44)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A44)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8018,19 +8026,19 @@
         <v>96</v>
       </c>
       <c r="C45" s="1" t="str">
-        <f>MID(A45,FIND("bs",A45)+2,FIND("_ep",A45)-FIND("bs",A45)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f>MID(A45,FIND("ep",A45)+2,FIND("_lr",A45)-FIND("ep",A45)-2)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>MID(A45,FIND("lr",A45)+2,FIND("_lf",A45)-FIND("lr",A45)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A45)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A45)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -8042,19 +8050,19 @@
         <v>93</v>
       </c>
       <c r="C46" s="1" t="str">
-        <f>MID(A46,FIND("bs",A46)+2,FIND("_ep",A46)-FIND("bs",A46)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f>MID(A46,FIND("ep",A46)+2,FIND("_lr",A46)-FIND("ep",A46)-2)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>MID(A46,FIND("lr",A46)+2,FIND("_lf",A46)-FIND("lr",A46)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A46)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A46)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8066,19 +8074,19 @@
         <v>109</v>
       </c>
       <c r="C47" s="1" t="str">
-        <f>MID(A47,FIND("bs",A47)+2,FIND("_ep",A47)-FIND("bs",A47)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f>MID(A47,FIND("ep",A47)+2,FIND("_lr",A47)-FIND("ep",A47)-2)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>MID(A47,FIND("lr",A47)+2,FIND("_lf",A47)-FIND("lr",A47)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A47)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A47)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -8090,19 +8098,19 @@
         <v>74</v>
       </c>
       <c r="C48" s="1" t="str">
-        <f>MID(A48,FIND("bs",A48)+2,FIND("_ep",A48)-FIND("bs",A48)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f>MID(A48,FIND("ep",A48)+2,FIND("_lr",A48)-FIND("ep",A48)-2)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f>MID(A48,FIND("lr",A48)+2,FIND("_lf",A48)-FIND("lr",A48)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A48)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A48)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8114,19 +8122,19 @@
         <v>75</v>
       </c>
       <c r="C49" s="1" t="str">
-        <f>MID(A49,FIND("bs",A49)+2,FIND("_ep",A49)-FIND("bs",A49)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f>MID(A49,FIND("ep",A49)+2,FIND("_lr",A49)-FIND("ep",A49)-2)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>MID(A49,FIND("lr",A49)+2,FIND("_lf",A49)-FIND("lr",A49)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A49)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A49)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -8138,19 +8146,19 @@
         <v>101</v>
       </c>
       <c r="C50" s="1" t="str">
-        <f>MID(A50,FIND("bs",A50)+2,FIND("_ep",A50)-FIND("bs",A50)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f>MID(A50,FIND("ep",A50)+2,FIND("_lr",A50)-FIND("ep",A50)-2)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f>MID(A50,FIND("lr",A50)+2,FIND("_lf",A50)-FIND("lr",A50)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A50)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A50)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8162,19 +8170,19 @@
         <v>104</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f>MID(A51,FIND("bs",A51)+2,FIND("_ep",A51)-FIND("bs",A51)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f>MID(A51,FIND("ep",A51)+2,FIND("_lr",A51)-FIND("ep",A51)-2)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f>MID(A51,FIND("lr",A51)+2,FIND("_lf",A51)-FIND("lr",A51)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A51)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A51)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -8186,19 +8194,19 @@
         <v>110</v>
       </c>
       <c r="C52" s="1" t="str">
-        <f>MID(A52,FIND("bs",A52)+2,FIND("_ep",A52)-FIND("bs",A52)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f>MID(A52,FIND("ep",A52)+2,FIND("_lr",A52)-FIND("ep",A52)-2)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f>MID(A52,FIND("lr",A52)+2,FIND("_lf",A52)-FIND("lr",A52)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A52)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A52)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8210,19 +8218,19 @@
         <v>93</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f>MID(A53,FIND("bs",A53)+2,FIND("_ep",A53)-FIND("bs",A53)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f>MID(A53,FIND("ep",A53)+2,FIND("_lr",A53)-FIND("ep",A53)-2)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f>MID(A53,FIND("lr",A53)+2,FIND("_lf",A53)-FIND("lr",A53)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A53)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A53)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -8234,19 +8242,19 @@
         <v>73</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f>MID(A54,FIND("bs",A54)+2,FIND("_ep",A54)-FIND("bs",A54)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f>MID(A54,FIND("ep",A54)+2,FIND("_lr",A54)-FIND("ep",A54)-2)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f>MID(A54,FIND("lr",A54)+2,FIND("_lf",A54)-FIND("lr",A54)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A54)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A54)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8258,19 +8266,19 @@
         <v>74</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f>MID(A55,FIND("bs",A55)+2,FIND("_ep",A55)-FIND("bs",A55)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f>MID(A55,FIND("ep",A55)+2,FIND("_lr",A55)-FIND("ep",A55)-2)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f>MID(A55,FIND("lr",A55)+2,FIND("_lf",A55)-FIND("lr",A55)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A55)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A55)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -8282,19 +8290,19 @@
         <v>104</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f>MID(A56,FIND("bs",A56)+2,FIND("_ep",A56)-FIND("bs",A56)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f>MID(A56,FIND("ep",A56)+2,FIND("_lr",A56)-FIND("ep",A56)-2)</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>MID(A56,FIND("lr",A56)+2,FIND("_lf",A56)-FIND("lr",A56)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A56)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A56)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8306,19 +8314,19 @@
         <v>104</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f>MID(A57,FIND("bs",A57)+2,FIND("_ep",A57)-FIND("bs",A57)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f>MID(A57,FIND("ep",A57)+2,FIND("_lr",A57)-FIND("ep",A57)-2)</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>MID(A57,FIND("lr",A57)+2,FIND("_lf",A57)-FIND("lr",A57)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A57)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A57)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -8330,19 +8338,19 @@
         <v>92</v>
       </c>
       <c r="C58" s="1" t="str">
-        <f>MID(A58,FIND("bs",A58)+2,FIND("_ep",A58)-FIND("bs",A58)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f>MID(A58,FIND("ep",A58)+2,FIND("_lr",A58)-FIND("ep",A58)-2)</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>MID(A58,FIND("lr",A58)+2,FIND("_lf",A58)-FIND("lr",A58)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A58)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A58)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8354,19 +8362,19 @@
         <v>94</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f>MID(A59,FIND("bs",A59)+2,FIND("_ep",A59)-FIND("bs",A59)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f>MID(A59,FIND("ep",A59)+2,FIND("_lr",A59)-FIND("ep",A59)-2)</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>MID(A59,FIND("lr",A59)+2,FIND("_lf",A59)-FIND("lr",A59)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A59)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A59)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -8378,19 +8386,19 @@
         <v>71</v>
       </c>
       <c r="C60" s="1" t="str">
-        <f>MID(A60,FIND("bs",A60)+2,FIND("_ep",A60)-FIND("bs",A60)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f>MID(A60,FIND("ep",A60)+2,FIND("_lr",A60)-FIND("ep",A60)-2)</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>MID(A60,FIND("lr",A60)+2,FIND("_lf",A60)-FIND("lr",A60)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A60)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A60)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8402,19 +8410,19 @@
         <v>73</v>
       </c>
       <c r="C61" s="1" t="str">
-        <f>MID(A61,FIND("bs",A61)+2,FIND("_ep",A61)-FIND("bs",A61)-2)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f>MID(A61,FIND("ep",A61)+2,FIND("_lr",A61)-FIND("ep",A61)-2)</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>MID(A61,FIND("lr",A61)+2,FIND("_lf",A61)-FIND("lr",A61)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A61)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A61)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -8426,19 +8434,19 @@
         <v>93</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f>MID(A62,FIND("bs",A62)+2,FIND("_ep",A62)-FIND("bs",A62)-2)</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f>MID(A62,FIND("ep",A62)+2,FIND("_lr",A62)-FIND("ep",A62)-2)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>MID(A62,FIND("lr",A62)+2,FIND("_lf",A62)-FIND("lr",A62)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A62)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A62)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8450,19 +8458,19 @@
         <v>93</v>
       </c>
       <c r="C63" s="1" t="str">
-        <f>MID(A63,FIND("bs",A63)+2,FIND("_ep",A63)-FIND("bs",A63)-2)</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f>MID(A63,FIND("ep",A63)+2,FIND("_lr",A63)-FIND("ep",A63)-2)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>MID(A63,FIND("lr",A63)+2,FIND("_lf",A63)-FIND("lr",A63)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A63)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A63)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -8474,19 +8482,19 @@
         <v>110</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f>MID(A64,FIND("bs",A64)+2,FIND("_ep",A64)-FIND("bs",A64)-2)</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f>MID(A64,FIND("ep",A64)+2,FIND("_lr",A64)-FIND("ep",A64)-2)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>MID(A64,FIND("lr",A64)+2,FIND("_lf",A64)-FIND("lr",A64)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A64)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A64)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8498,19 +8506,19 @@
         <v>99</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f>MID(A65,FIND("bs",A65)+2,FIND("_ep",A65)-FIND("bs",A65)-2)</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f>MID(A65,FIND("ep",A65)+2,FIND("_lr",A65)-FIND("ep",A65)-2)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>MID(A65,FIND("lr",A65)+2,FIND("_lf",A65)-FIND("lr",A65)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A65)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A65)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -8522,19 +8530,19 @@
         <v>88</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f>MID(A66,FIND("bs",A66)+2,FIND("_ep",A66)-FIND("bs",A66)-2)</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f>MID(A66,FIND("ep",A66)+2,FIND("_lr",A66)-FIND("ep",A66)-2)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>MID(A66,FIND("lr",A66)+2,FIND("_lf",A66)-FIND("lr",A66)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A66)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A66)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8546,19 +8554,19 @@
         <v>94</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f>MID(A67,FIND("bs",A67)+2,FIND("_ep",A67)-FIND("bs",A67)-2)</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f>MID(A67,FIND("ep",A67)+2,FIND("_lr",A67)-FIND("ep",A67)-2)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>MID(A67,FIND("lr",A67)+2,FIND("_lf",A67)-FIND("lr",A67)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A67)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A67)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -8570,19 +8578,19 @@
         <v>94</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f>MID(A68,FIND("bs",A68)+2,FIND("_ep",A68)-FIND("bs",A68)-2)</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f>MID(A68,FIND("ep",A68)+2,FIND("_lr",A68)-FIND("ep",A68)-2)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f>MID(A68,FIND("lr",A68)+2,FIND("_lf",A68)-FIND("lr",A68)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A68)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A68)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8594,19 +8602,19 @@
         <v>92</v>
       </c>
       <c r="C69" s="1" t="str">
-        <f>MID(A69,FIND("bs",A69)+2,FIND("_ep",A69)-FIND("bs",A69)-2)</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f>MID(A69,FIND("ep",A69)+2,FIND("_lr",A69)-FIND("ep",A69)-2)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f>MID(A69,FIND("lr",A69)+2,FIND("_lf",A69)-FIND("lr",A69)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.0001</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A69)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A69)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -8618,19 +8626,19 @@
         <v>99</v>
       </c>
       <c r="C70" s="1" t="str">
-        <f>MID(A70,FIND("bs",A70)+2,FIND("_ep",A70)-FIND("bs",A70)-2)</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f>MID(A70,FIND("ep",A70)+2,FIND("_lr",A70)-FIND("ep",A70)-2)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f>MID(A70,FIND("lr",A70)+2,FIND("_lf",A70)-FIND("lr",A70)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A70)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A70)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8642,19 +8650,19 @@
         <v>106</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f>MID(A71,FIND("bs",A71)+2,FIND("_ep",A71)-FIND("bs",A71)-2)</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f>MID(A71,FIND("ep",A71)+2,FIND("_lr",A71)-FIND("ep",A71)-2)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f>MID(A71,FIND("lr",A71)+2,FIND("_lf",A71)-FIND("lr",A71)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.001</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A71)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A71)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -8666,19 +8674,19 @@
         <v>85</v>
       </c>
       <c r="C72" s="1" t="str">
-        <f>MID(A72,FIND("bs",A72)+2,FIND("_ep",A72)-FIND("bs",A72)-2)</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f>MID(A72,FIND("ep",A72)+2,FIND("_lr",A72)-FIND("ep",A72)-2)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>MID(A72,FIND("lr",A72)+2,FIND("_lf",A72)-FIND("lr",A72)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A72)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A72)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8690,19 +8698,19 @@
         <v>111</v>
       </c>
       <c r="C73" s="1" t="str">
-        <f>MID(A73,FIND("bs",A73)+2,FIND("_ep",A73)-FIND("bs",A73)-2)</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f>MID(A73,FIND("ep",A73)+2,FIND("_lr",A73)-FIND("ep",A73)-2)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>MID(A73,FIND("lr",A73)+2,FIND("_lf",A73)-FIND("lr",A73)-2)</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A73)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A73)),"custom_loss",""))</f>
+        <f t="shared" si="7"/>
         <v>huber</v>
       </c>
     </row>
@@ -8714,19 +8722,19 @@
         <v>90</v>
       </c>
       <c r="C74" s="1" t="str">
-        <f>MID(A74,FIND("bs",A74)+2,FIND("_ep",A74)-FIND("bs",A74)-2)</f>
+        <f t="shared" ref="C74:C91" si="8">MID(A74,FIND("bs",A74)+2,FIND("_ep",A74)-FIND("bs",A74)-2)</f>
         <v>64</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f>MID(A74,FIND("ep",A74)+2,FIND("_lr",A74)-FIND("ep",A74)-2)</f>
+        <f t="shared" ref="D74:D91" si="9">MID(A74,FIND("ep",A74)+2,FIND("_lr",A74)-FIND("ep",A74)-2)</f>
         <v>40</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>MID(A74,FIND("lr",A74)+2,FIND("_lf",A74)-FIND("lr",A74)-2)</f>
+        <f t="shared" ref="E74:E91" si="10">MID(A74,FIND("lr",A74)+2,FIND("_lf",A74)-FIND("lr",A74)-2)</f>
         <v>0.0001</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A74)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A74)),"custom_loss",""))</f>
+        <f t="shared" ref="F74:F91" si="11">IF(ISNUMBER(SEARCH("huber",A74)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A74)),"custom_loss",""))</f>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8738,19 +8746,19 @@
         <v>90</v>
       </c>
       <c r="C75" s="1" t="str">
-        <f>MID(A75,FIND("bs",A75)+2,FIND("_ep",A75)-FIND("bs",A75)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f>MID(A75,FIND("ep",A75)+2,FIND("_lr",A75)-FIND("ep",A75)-2)</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f>MID(A75,FIND("lr",A75)+2,FIND("_lf",A75)-FIND("lr",A75)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.0001</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A75)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A75)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>huber</v>
       </c>
     </row>
@@ -8762,19 +8770,19 @@
         <v>108</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f>MID(A76,FIND("bs",A76)+2,FIND("_ep",A76)-FIND("bs",A76)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f>MID(A76,FIND("ep",A76)+2,FIND("_lr",A76)-FIND("ep",A76)-2)</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>MID(A76,FIND("lr",A76)+2,FIND("_lf",A76)-FIND("lr",A76)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.001</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A76)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A76)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8786,19 +8794,19 @@
         <v>109</v>
       </c>
       <c r="C77" s="1" t="str">
-        <f>MID(A77,FIND("bs",A77)+2,FIND("_ep",A77)-FIND("bs",A77)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f>MID(A77,FIND("ep",A77)+2,FIND("_lr",A77)-FIND("ep",A77)-2)</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>MID(A77,FIND("lr",A77)+2,FIND("_lf",A77)-FIND("lr",A77)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.001</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A77)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A77)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>huber</v>
       </c>
     </row>
@@ -8810,19 +8818,19 @@
         <v>90</v>
       </c>
       <c r="C78" s="1" t="str">
-        <f>MID(A78,FIND("bs",A78)+2,FIND("_ep",A78)-FIND("bs",A78)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f>MID(A78,FIND("ep",A78)+2,FIND("_lr",A78)-FIND("ep",A78)-2)</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>MID(A78,FIND("lr",A78)+2,FIND("_lf",A78)-FIND("lr",A78)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.01</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A78)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A78)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8834,19 +8842,19 @@
         <v>91</v>
       </c>
       <c r="C79" s="1" t="str">
-        <f>MID(A79,FIND("bs",A79)+2,FIND("_ep",A79)-FIND("bs",A79)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f>MID(A79,FIND("ep",A79)+2,FIND("_lr",A79)-FIND("ep",A79)-2)</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>MID(A79,FIND("lr",A79)+2,FIND("_lf",A79)-FIND("lr",A79)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.01</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A79)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A79)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>huber</v>
       </c>
     </row>
@@ -8858,19 +8866,19 @@
         <v>93</v>
       </c>
       <c r="C80" s="1" t="str">
-        <f>MID(A80,FIND("bs",A80)+2,FIND("_ep",A80)-FIND("bs",A80)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f>MID(A80,FIND("ep",A80)+2,FIND("_lr",A80)-FIND("ep",A80)-2)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f>MID(A80,FIND("lr",A80)+2,FIND("_lf",A80)-FIND("lr",A80)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.0001</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A80)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A80)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8882,19 +8890,19 @@
         <v>102</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f>MID(A81,FIND("bs",A81)+2,FIND("_ep",A81)-FIND("bs",A81)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f>MID(A81,FIND("ep",A81)+2,FIND("_lr",A81)-FIND("ep",A81)-2)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f>MID(A81,FIND("lr",A81)+2,FIND("_lf",A81)-FIND("lr",A81)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.0001</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A81)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A81)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>huber</v>
       </c>
     </row>
@@ -8906,19 +8914,19 @@
         <v>102</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f>MID(A82,FIND("bs",A82)+2,FIND("_ep",A82)-FIND("bs",A82)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f>MID(A82,FIND("ep",A82)+2,FIND("_lr",A82)-FIND("ep",A82)-2)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f>MID(A82,FIND("lr",A82)+2,FIND("_lf",A82)-FIND("lr",A82)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.001</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A82)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A82)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8930,19 +8938,19 @@
         <v>119</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f>MID(A83,FIND("bs",A83)+2,FIND("_ep",A83)-FIND("bs",A83)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f>MID(A83,FIND("ep",A83)+2,FIND("_lr",A83)-FIND("ep",A83)-2)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f>MID(A83,FIND("lr",A83)+2,FIND("_lf",A83)-FIND("lr",A83)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.001</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A83)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A83)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>huber</v>
       </c>
     </row>
@@ -8954,19 +8962,19 @@
         <v>100</v>
       </c>
       <c r="C84" s="1" t="str">
-        <f>MID(A84,FIND("bs",A84)+2,FIND("_ep",A84)-FIND("bs",A84)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f>MID(A84,FIND("ep",A84)+2,FIND("_lr",A84)-FIND("ep",A84)-2)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f>MID(A84,FIND("lr",A84)+2,FIND("_lf",A84)-FIND("lr",A84)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.01</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A84)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A84)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -8978,19 +8986,19 @@
         <v>77</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f>MID(A85,FIND("bs",A85)+2,FIND("_ep",A85)-FIND("bs",A85)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f>MID(A85,FIND("ep",A85)+2,FIND("_lr",A85)-FIND("ep",A85)-2)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f>MID(A85,FIND("lr",A85)+2,FIND("_lf",A85)-FIND("lr",A85)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.01</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A85)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A85)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>huber</v>
       </c>
     </row>
@@ -9002,19 +9010,19 @@
         <v>97</v>
       </c>
       <c r="C86" s="1" t="str">
-        <f>MID(A86,FIND("bs",A86)+2,FIND("_ep",A86)-FIND("bs",A86)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f>MID(A86,FIND("ep",A86)+2,FIND("_lr",A86)-FIND("ep",A86)-2)</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f>MID(A86,FIND("lr",A86)+2,FIND("_lf",A86)-FIND("lr",A86)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.0001</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A86)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A86)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -9026,19 +9034,19 @@
         <v>99</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f>MID(A87,FIND("bs",A87)+2,FIND("_ep",A87)-FIND("bs",A87)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f>MID(A87,FIND("ep",A87)+2,FIND("_lr",A87)-FIND("ep",A87)-2)</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f>MID(A87,FIND("lr",A87)+2,FIND("_lf",A87)-FIND("lr",A87)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.0001</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A87)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A87)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>huber</v>
       </c>
     </row>
@@ -9050,19 +9058,19 @@
         <v>101</v>
       </c>
       <c r="C88" s="1" t="str">
-        <f>MID(A88,FIND("bs",A88)+2,FIND("_ep",A88)-FIND("bs",A88)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f>MID(A88,FIND("ep",A88)+2,FIND("_lr",A88)-FIND("ep",A88)-2)</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f>MID(A88,FIND("lr",A88)+2,FIND("_lf",A88)-FIND("lr",A88)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.001</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A88)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A88)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -9074,19 +9082,19 @@
         <v>108</v>
       </c>
       <c r="C89" s="1" t="str">
-        <f>MID(A89,FIND("bs",A89)+2,FIND("_ep",A89)-FIND("bs",A89)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f>MID(A89,FIND("ep",A89)+2,FIND("_lr",A89)-FIND("ep",A89)-2)</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f>MID(A89,FIND("lr",A89)+2,FIND("_lf",A89)-FIND("lr",A89)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.001</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A89)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A89)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>huber</v>
       </c>
     </row>
@@ -9098,19 +9106,19 @@
         <v>102</v>
       </c>
       <c r="C90" s="1" t="str">
-        <f>MID(A90,FIND("bs",A90)+2,FIND("_ep",A90)-FIND("bs",A90)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f>MID(A90,FIND("ep",A90)+2,FIND("_lr",A90)-FIND("ep",A90)-2)</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f>MID(A90,FIND("lr",A90)+2,FIND("_lf",A90)-FIND("lr",A90)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.01</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A90)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A90)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>custom_loss</v>
       </c>
     </row>
@@ -9122,19 +9130,19 @@
         <v>116</v>
       </c>
       <c r="C91" s="1" t="str">
-        <f>MID(A91,FIND("bs",A91)+2,FIND("_ep",A91)-FIND("bs",A91)-2)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f>MID(A91,FIND("ep",A91)+2,FIND("_lr",A91)-FIND("ep",A91)-2)</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f>MID(A91,FIND("lr",A91)+2,FIND("_lf",A91)-FIND("lr",A91)-2)</f>
+        <f t="shared" si="10"/>
         <v>0.01</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A91)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A91)),"custom_loss",""))</f>
+        <f t="shared" si="11"/>
         <v>huber</v>
       </c>
     </row>
@@ -9153,14 +9161,13 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="45.57421875"/>
-    <col bestFit="1" min="2" max="2" width="14.86328125"/>
-    <col bestFit="1" min="3" max="3" width="13.9140625"/>
-    <col bestFit="1" min="4" max="4" width="10.78125"/>
-    <col bestFit="1" min="5" max="5" width="16.4921875"/>
-    <col bestFit="1" min="6" max="6" width="16.22265625"/>
+    <col bestFit="1" min="2" max="2" width="17.8515625"/>
+    <col bestFit="1" min="3" max="3" width="16.22265625"/>
+    <col bestFit="1" min="4" max="4" width="13.1640625"/>
+    <col bestFit="1" min="5" max="6" width="19.08203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9190,2157 +9197,1797 @@
       <c r="B2" s="2">
         <v>67</v>
       </c>
-      <c r="C2" s="1" t="str">
-        <f>MID(A4,FIND("bs",A4)+2,FIND("_ep",A4)-FIND("bs",A4)-2)</f>
+      <c r="C2" s="1">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="str">
-        <f>MID(A4,FIND("ep",A4)+2,FIND("_lr",A4)-FIND("ep",A4)-2)</f>
+      <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <f>MID(A4,FIND("lr",A4)+2,FIND("_lf",A4)-FIND("lr",A4)-2)</f>
+      <c r="E2" s="1">
         <v>0.01</v>
       </c>
-      <c r="F2" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A4)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A4)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="F2" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>69</v>
       </c>
-      <c r="C3" s="1" t="str">
-        <f>MID(A14,FIND("bs",A14)+2,FIND("_ep",A14)-FIND("bs",A14)-2)</f>
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>MID(A14,FIND("ep",A14)+2,FIND("_lr",A14)-FIND("ep",A14)-2)</f>
-        <v>40</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f>MID(A14,FIND("lr",A14)+2,FIND("_lf",A14)-FIND("lr",A14)-2)</f>
+      <c r="C3" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.01</v>
       </c>
-      <c r="F3" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A14)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A14)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F3" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
-        <v>69</v>
-      </c>
-      <c r="C4" s="1" t="e">
-        <f>MID(#REF!,FIND("bs",#REF!)+2,FIND("_ep",#REF!)-FIND("bs",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="1" t="e">
-        <f>MID(#REF!,FIND("ep",#REF!)+2,FIND("_lr",#REF!)-FIND("ep",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E4" s="1" t="e">
-        <f>MID(#REF!,FIND("lr",#REF!)+2,FIND("_lf",#REF!)-FIND("lr",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",#REF!)),"huber",IF(ISNUMBER(SEARCH("custom_loss",#REF!)),"custom_loss",""))</f>
-        <v/>
+        <v>70</v>
+      </c>
+      <c r="C4" s="1">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2">
-        <v>70</v>
-      </c>
-      <c r="C5" s="1" t="e">
-        <f>MID(#REF!,FIND("bs",#REF!)+2,FIND("_ep",#REF!)-FIND("bs",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D5" s="1" t="e">
-        <f>MID(#REF!,FIND("ep",#REF!)+2,FIND("_lr",#REF!)-FIND("ep",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E5" s="1" t="e">
-        <f>MID(#REF!,FIND("lr",#REF!)+2,FIND("_lf",#REF!)-FIND("lr",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",#REF!)),"huber",IF(ISNUMBER(SEARCH("custom_loss",#REF!)),"custom_loss",""))</f>
-        <v/>
+        <v>71</v>
+      </c>
+      <c r="C5" s="1">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2">
-        <v>71</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>MID(A14,FIND("bs",A14)+2,FIND("_ep",A14)-FIND("bs",A14)-2)</f>
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f>MID(A14,FIND("ep",A14)+2,FIND("_lr",A14)-FIND("ep",A14)-2)</f>
-        <v>40</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f>MID(A14,FIND("lr",A14)+2,FIND("_lf",A14)-FIND("lr",A14)-2)</f>
+        <v>88</v>
+      </c>
+      <c r="C6" s="1">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.01</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A14)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A14)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F6" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2">
-        <v>71</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>MID(A24,FIND("bs",A24)+2,FIND("_ep",A24)-FIND("bs",A24)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f>MID(A24,FIND("ep",A24)+2,FIND("_lr",A24)-FIND("ep",A24)-2)</f>
-        <v>40</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f>MID(A24,FIND("lr",A24)+2,FIND("_lf",A24)-FIND("lr",A24)-2)</f>
+        <v>93</v>
+      </c>
+      <c r="C7" s="1">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.0001</v>
       </c>
-      <c r="F7" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A24)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A24)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F7" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2">
+        <v>93</v>
+      </c>
+      <c r="C8" s="1">
         <v>64</v>
       </c>
-      <c r="B8" s="2">
-        <v>71</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f>MID(A37,FIND("bs",A37)+2,FIND("_ep",A37)-FIND("bs",A37)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f>MID(A37,FIND("ep",A37)+2,FIND("_lr",A37)-FIND("ep",A37)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f>MID(A37,FIND("lr",A37)+2,FIND("_lf",A37)-FIND("lr",A37)-2)</f>
+      <c r="D8" s="1">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.0001</v>
       </c>
-      <c r="F8" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A37)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A37)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F8" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2">
-        <v>72</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f>MID(A14,FIND("bs",A14)+2,FIND("_ep",A14)-FIND("bs",A14)-2)</f>
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>MID(A14,FIND("ep",A14)+2,FIND("_lr",A14)-FIND("ep",A14)-2)</f>
-        <v>40</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f>MID(A14,FIND("lr",A14)+2,FIND("_lf",A14)-FIND("lr",A14)-2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A14)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A14)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+        <v>93</v>
+      </c>
+      <c r="C9" s="1">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2">
-        <v>72</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f>MID(A24,FIND("bs",A24)+2,FIND("_ep",A24)-FIND("bs",A24)-2)</f>
+        <v>94</v>
+      </c>
+      <c r="C10" s="1">
         <v>64</v>
       </c>
-      <c r="D10" s="1" t="str">
-        <f>MID(A24,FIND("ep",A24)+2,FIND("_lr",A24)-FIND("ep",A24)-2)</f>
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f>MID(A24,FIND("lr",A24)+2,FIND("_lf",A24)-FIND("lr",A24)-2)</f>
-        <v>0.0001</v>
-      </c>
-      <c r="F10" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A24)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A24)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="D10" s="1">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>73</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f>MID(A37,FIND("bs",A37)+2,FIND("_ep",A37)-FIND("bs",A37)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f>MID(A37,FIND("ep",A37)+2,FIND("_lr",A37)-FIND("ep",A37)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <f>MID(A37,FIND("lr",A37)+2,FIND("_lf",A37)-FIND("lr",A37)-2)</f>
+        <v>95</v>
+      </c>
+      <c r="C11" s="1">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.0001</v>
       </c>
-      <c r="F11" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A37)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A37)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F11" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2">
-        <v>73</v>
-      </c>
-      <c r="C12" s="1" t="e">
-        <f>MID(#REF!,FIND("bs",#REF!)+2,FIND("_ep",#REF!)-FIND("bs",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="1" t="e">
-        <f>MID(#REF!,FIND("ep",#REF!)+2,FIND("_lr",#REF!)-FIND("ep",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="1" t="e">
-        <f>MID(#REF!,FIND("lr",#REF!)+2,FIND("_lf",#REF!)-FIND("lr",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",#REF!)),"huber",IF(ISNUMBER(SEARCH("custom_loss",#REF!)),"custom_loss",""))</f>
-        <v/>
+        <v>99</v>
+      </c>
+      <c r="C12" s="1">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
-        <v>73</v>
-      </c>
-      <c r="C13" s="1" t="e">
-        <f>MID(#REF!,FIND("bs",#REF!)+2,FIND("_ep",#REF!)-FIND("bs",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="1" t="e">
-        <f>MID(#REF!,FIND("ep",#REF!)+2,FIND("_lr",#REF!)-FIND("ep",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="1" t="e">
-        <f>MID(#REF!,FIND("lr",#REF!)+2,FIND("_lf",#REF!)-FIND("lr",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",#REF!)),"huber",IF(ISNUMBER(SEARCH("custom_loss",#REF!)),"custom_loss",""))</f>
-        <v/>
+        <v>101</v>
+      </c>
+      <c r="C13" s="1">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2">
-        <v>74</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f>MID(A37,FIND("bs",A37)+2,FIND("_ep",A37)-FIND("bs",A37)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f>MID(A37,FIND("ep",A37)+2,FIND("_lr",A37)-FIND("ep",A37)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f>MID(A37,FIND("lr",A37)+2,FIND("_lf",A37)-FIND("lr",A37)-2)</f>
-        <v>0.0001</v>
-      </c>
-      <c r="F14" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A37)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A37)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+        <v>103</v>
+      </c>
+      <c r="C14" s="1">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2">
-        <v>74</v>
-      </c>
-      <c r="C15" s="1" t="e">
-        <f>MID(#REF!,FIND("bs",#REF!)+2,FIND("_ep",#REF!)-FIND("bs",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="1" t="e">
-        <f>MID(#REF!,FIND("ep",#REF!)+2,FIND("_lr",#REF!)-FIND("ep",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="1" t="e">
-        <f>MID(#REF!,FIND("lr",#REF!)+2,FIND("_lf",#REF!)-FIND("lr",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",#REF!)),"huber",IF(ISNUMBER(SEARCH("custom_loss",#REF!)),"custom_loss",""))</f>
-        <v/>
+        <v>107</v>
+      </c>
+      <c r="C15" s="1">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2">
-        <v>75</v>
-      </c>
-      <c r="C16" s="1" t="e">
-        <f>MID(#REF!,FIND("bs",#REF!)+2,FIND("_ep",#REF!)-FIND("bs",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="1" t="e">
-        <f>MID(#REF!,FIND("ep",#REF!)+2,FIND("_lr",#REF!)-FIND("ep",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="1" t="e">
-        <f>MID(#REF!,FIND("lr",#REF!)+2,FIND("_lf",#REF!)-FIND("lr",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F16" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",#REF!)),"huber",IF(ISNUMBER(SEARCH("custom_loss",#REF!)),"custom_loss",""))</f>
-        <v/>
+        <v>108</v>
+      </c>
+      <c r="C16" s="1">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2">
-        <v>75</v>
-      </c>
-      <c r="C17" s="1" t="e">
-        <f>MID(#REF!,FIND("bs",#REF!)+2,FIND("_ep",#REF!)-FIND("bs",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="1" t="e">
-        <f>MID(#REF!,FIND("ep",#REF!)+2,FIND("_lr",#REF!)-FIND("ep",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E17" s="1" t="e">
-        <f>MID(#REF!,FIND("lr",#REF!)+2,FIND("_lf",#REF!)-FIND("lr",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",#REF!)),"huber",IF(ISNUMBER(SEARCH("custom_loss",#REF!)),"custom_loss",""))</f>
-        <v/>
+        <v>110</v>
+      </c>
+      <c r="C17" s="1">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2">
-        <v>76</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f>MID(A38,FIND("bs",A38)+2,FIND("_ep",A38)-FIND("bs",A38)-2)</f>
-        <v>32</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f>MID(A38,FIND("ep",A38)+2,FIND("_lr",A38)-FIND("ep",A38)-2)</f>
-        <v>60</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f>MID(A38,FIND("lr",A38)+2,FIND("_lf",A38)-FIND("lr",A38)-2)</f>
+        <v>116</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1">
         <v>0.001</v>
       </c>
-      <c r="F18" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A38)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A38)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="F18" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2">
-        <v>77</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f>MID(A16,FIND("bs",A16)+2,FIND("_ep",A16)-FIND("bs",A16)-2)</f>
+        <v>118</v>
+      </c>
+      <c r="C19" s="1">
         <v>16</v>
       </c>
-      <c r="D19" s="1" t="str">
-        <f>MID(A16,FIND("ep",A16)+2,FIND("_lr",A16)-FIND("ep",A16)-2)</f>
-        <v>60</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <f>MID(A16,FIND("lr",A16)+2,FIND("_lf",A16)-FIND("lr",A16)-2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A16)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A16)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="D19" s="1">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>78</v>
-      </c>
-      <c r="C20" s="1" t="e">
-        <f>MID(#REF!,FIND("bs",#REF!)+2,FIND("_ep",#REF!)-FIND("bs",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="1" t="e">
-        <f>MID(#REF!,FIND("ep",#REF!)+2,FIND("_lr",#REF!)-FIND("ep",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E20" s="1" t="e">
-        <f>MID(#REF!,FIND("lr",#REF!)+2,FIND("_lf",#REF!)-FIND("lr",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F20" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",#REF!)),"huber",IF(ISNUMBER(SEARCH("custom_loss",#REF!)),"custom_loss",""))</f>
-        <v/>
+        <v>72</v>
+      </c>
+      <c r="C20" s="1">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2">
-        <v>83</v>
-      </c>
-      <c r="C21" s="1" t="e">
-        <f>MID(#REF!,FIND("bs",#REF!)+2,FIND("_ep",#REF!)-FIND("bs",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D21" s="1" t="e">
-        <f>MID(#REF!,FIND("ep",#REF!)+2,FIND("_lr",#REF!)-FIND("ep",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E21" s="1" t="e">
-        <f>MID(#REF!,FIND("lr",#REF!)+2,FIND("_lf",#REF!)-FIND("lr",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F21" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",#REF!)),"huber",IF(ISNUMBER(SEARCH("custom_loss",#REF!)),"custom_loss",""))</f>
-        <v/>
+        <v>76</v>
+      </c>
+      <c r="C21" s="1">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2">
-        <v>85</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f>MID(A57,FIND("bs",A57)+2,FIND("_ep",A57)-FIND("bs",A57)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f>MID(A57,FIND("ep",A57)+2,FIND("_lr",A57)-FIND("ep",A57)-2)</f>
-        <v>60</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <f>MID(A57,FIND("lr",A57)+2,FIND("_lf",A57)-FIND("lr",A57)-2)</f>
+        <v>83</v>
+      </c>
+      <c r="C22" s="1">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1">
         <v>0.01</v>
       </c>
-      <c r="F22" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A57)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A57)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F22" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B23" s="2">
-        <v>88</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f>MID(A55,FIND("bs",A55)+2,FIND("_ep",A55)-FIND("bs",A55)-2)</f>
-        <v>32</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f>MID(A55,FIND("ep",A55)+2,FIND("_lr",A55)-FIND("ep",A55)-2)</f>
-        <v>25</v>
-      </c>
-      <c r="E23" s="1" t="str">
-        <f>MID(A55,FIND("lr",A55)+2,FIND("_lf",A55)-FIND("lr",A55)-2)</f>
-        <v>0.0001</v>
-      </c>
-      <c r="F23" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A55)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A55)),"custom_loss",""))</f>
-        <v>huber</v>
+        <v>85</v>
+      </c>
+      <c r="C23" s="1">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2">
-        <v>90</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f>MID(A60,FIND("bs",A60)+2,FIND("_ep",A60)-FIND("bs",A60)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f>MID(A60,FIND("ep",A60)+2,FIND("_lr",A60)-FIND("ep",A60)-2)</f>
-        <v>50</v>
-      </c>
-      <c r="E24" s="1" t="str">
-        <f>MID(A60,FIND("lr",A60)+2,FIND("_lf",A60)-FIND("lr",A60)-2)</f>
-        <v>0.0001</v>
-      </c>
-      <c r="F24" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A60)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A60)),"custom_loss",""))</f>
-        <v>huber</v>
+        <v>91</v>
+      </c>
+      <c r="C24" s="1">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B25" s="2">
-        <v>90</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <f>MID(A63,FIND("bs",A63)+2,FIND("_ep",A63)-FIND("bs",A63)-2)</f>
-        <v>32</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f>MID(A63,FIND("ep",A63)+2,FIND("_lr",A63)-FIND("ep",A63)-2)</f>
-        <v>40</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <f>MID(A63,FIND("lr",A63)+2,FIND("_lf",A63)-FIND("lr",A63)-2)</f>
+        <v>92</v>
+      </c>
+      <c r="C25" s="1">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1">
         <v>0.0001</v>
       </c>
-      <c r="F25" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A63)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A63)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F25" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2">
-        <v>90</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f>MID(A18,FIND("bs",A18)+2,FIND("_ep",A18)-FIND("bs",A18)-2)</f>
-        <v>32</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f>MID(A18,FIND("ep",A18)+2,FIND("_lr",A18)-FIND("ep",A18)-2)</f>
+        <v>94</v>
+      </c>
+      <c r="C26" s="1">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1">
         <v>30</v>
       </c>
-      <c r="E26" s="1" t="str">
-        <f>MID(A18,FIND("lr",A18)+2,FIND("_lf",A18)-FIND("lr",A18)-2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="F26" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A18)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A18)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="E26" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>91</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f>MID(A46,FIND("bs",A46)+2,FIND("_ep",A46)-FIND("bs",A46)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f>MID(A46,FIND("ep",A46)+2,FIND("_lr",A46)-FIND("ep",A46)-2)</f>
+        <v>96</v>
+      </c>
+      <c r="C27" s="1">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1">
         <v>30</v>
       </c>
-      <c r="E27" s="1" t="str">
-        <f>MID(A46,FIND("lr",A46)+2,FIND("_lf",A46)-FIND("lr",A46)-2)</f>
-        <v>0.001</v>
-      </c>
-      <c r="F27" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A46)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A46)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="E27" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2">
-        <v>91</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f>MID(A22,FIND("bs",A22)+2,FIND("_ep",A22)-FIND("bs",A22)-2)</f>
+        <v>99</v>
+      </c>
+      <c r="C28" s="1">
         <v>64</v>
       </c>
-      <c r="D28" s="1" t="str">
-        <f>MID(A22,FIND("ep",A22)+2,FIND("_lr",A22)-FIND("ep",A22)-2)</f>
+      <c r="D28" s="1">
         <v>30</v>
       </c>
-      <c r="E28" s="1" t="str">
-        <f>MID(A22,FIND("lr",A22)+2,FIND("_lf",A22)-FIND("lr",A22)-2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="F28" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A22)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A22)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="E28" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B29" s="2">
-        <v>92</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f>MID(A57,FIND("bs",A57)+2,FIND("_ep",A57)-FIND("bs",A57)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f>MID(A57,FIND("ep",A57)+2,FIND("_lr",A57)-FIND("ep",A57)-2)</f>
-        <v>60</v>
-      </c>
-      <c r="E29" s="1" t="str">
-        <f>MID(A57,FIND("lr",A57)+2,FIND("_lf",A57)-FIND("lr",A57)-2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="F29" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A57)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A57)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+        <v>99</v>
+      </c>
+      <c r="C29" s="1">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2">
-        <v>92</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f>MID(A19,FIND("bs",A19)+2,FIND("_ep",A19)-FIND("bs",A19)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <f>MID(A19,FIND("ep",A19)+2,FIND("_lr",A19)-FIND("ep",A19)-2)</f>
-        <v>50</v>
-      </c>
-      <c r="E30" s="1" t="str">
-        <f>MID(A19,FIND("lr",A19)+2,FIND("_lf",A19)-FIND("lr",A19)-2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="F30" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A19)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A19)),"custom_loss",""))</f>
-        <v>huber</v>
+        <v>100</v>
+      </c>
+      <c r="C30" s="1">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2">
-        <v>93</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f>MID(A46,FIND("bs",A46)+2,FIND("_ep",A46)-FIND("bs",A46)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f>MID(A46,FIND("ep",A46)+2,FIND("_lr",A46)-FIND("ep",A46)-2)</f>
+        <v>101</v>
+      </c>
+      <c r="C31" s="1">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1">
         <v>30</v>
       </c>
-      <c r="E31" s="1" t="str">
-        <f>MID(A46,FIND("lr",A46)+2,FIND("_lf",A46)-FIND("lr",A46)-2)</f>
+      <c r="E31" s="1">
         <v>0.001</v>
       </c>
-      <c r="F31" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A46)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A46)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F31" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2">
-        <v>93</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <f>MID(A54,FIND("bs",A54)+2,FIND("_ep",A54)-FIND("bs",A54)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D32" s="1" t="str">
-        <f>MID(A54,FIND("ep",A54)+2,FIND("_lr",A54)-FIND("ep",A54)-2)</f>
-        <v>60</v>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f>MID(A54,FIND("lr",A54)+2,FIND("_lf",A54)-FIND("lr",A54)-2)</f>
+        <v>106</v>
+      </c>
+      <c r="C32" s="1">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1">
         <v>0.001</v>
       </c>
-      <c r="F32" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A54)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A54)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="F32" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2">
-        <v>93</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <f>MID(A63,FIND("bs",A63)+2,FIND("_ep",A63)-FIND("bs",A63)-2)</f>
+        <v>106</v>
+      </c>
+      <c r="C33" s="1">
         <v>32</v>
       </c>
-      <c r="D33" s="1" t="str">
-        <f>MID(A63,FIND("ep",A63)+2,FIND("_lr",A63)-FIND("ep",A63)-2)</f>
-        <v>40</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f>MID(A63,FIND("lr",A63)+2,FIND("_lf",A63)-FIND("lr",A63)-2)</f>
+      <c r="D33" s="1">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1">
         <v>0.0001</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A63)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A63)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F33" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2">
-        <v>93</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <f>MID(A73,FIND("bs",A73)+2,FIND("_ep",A73)-FIND("bs",A73)-2)</f>
-        <v>32</v>
-      </c>
-      <c r="D34" s="1" t="str">
-        <f>MID(A73,FIND("ep",A73)+2,FIND("_lr",A73)-FIND("ep",A73)-2)</f>
-        <v>25</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f>MID(A73,FIND("lr",A73)+2,FIND("_lf",A73)-FIND("lr",A73)-2)</f>
+        <v>108</v>
+      </c>
+      <c r="C34" s="1">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1">
+        <v>30</v>
+      </c>
+      <c r="E34" s="1">
         <v>0.001</v>
       </c>
-      <c r="F34" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A73)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A73)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="F34" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2">
-        <v>93</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <f>MID(A16,FIND("bs",A16)+2,FIND("_ep",A16)-FIND("bs",A16)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D35" s="1" t="str">
-        <f>MID(A16,FIND("ep",A16)+2,FIND("_lr",A16)-FIND("ep",A16)-2)</f>
-        <v>60</v>
-      </c>
-      <c r="E35" s="1" t="str">
-        <f>MID(A16,FIND("lr",A16)+2,FIND("_lf",A16)-FIND("lr",A16)-2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="F35" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A16)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A16)),"custom_loss",""))</f>
-        <v>huber</v>
+        <v>110</v>
+      </c>
+      <c r="C35" s="1">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <v>30</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2">
-        <v>93</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <f>MID(A22,FIND("bs",A22)+2,FIND("_ep",A22)-FIND("bs",A22)-2)</f>
+        <v>111</v>
+      </c>
+      <c r="C36" s="1">
         <v>64</v>
       </c>
-      <c r="D36" s="1" t="str">
-        <f>MID(A22,FIND("ep",A22)+2,FIND("_lr",A22)-FIND("ep",A22)-2)</f>
+      <c r="D36" s="1">
         <v>30</v>
       </c>
-      <c r="E36" s="1" t="str">
-        <f>MID(A22,FIND("lr",A22)+2,FIND("_lf",A22)-FIND("lr",A22)-2)</f>
+      <c r="E36" s="1">
         <v>0.01</v>
       </c>
-      <c r="F36" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A22)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A22)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F36" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2">
-        <v>94</v>
-      </c>
-      <c r="C37" s="1" t="str">
-        <f>MID(A70,FIND("bs",A70)+2,FIND("_ep",A70)-FIND("bs",A70)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="str">
-        <f>MID(A70,FIND("ep",A70)+2,FIND("_lr",A70)-FIND("ep",A70)-2)</f>
-        <v>25</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f>MID(A70,FIND("lr",A70)+2,FIND("_lf",A70)-FIND("lr",A70)-2)</f>
-        <v>0.0001</v>
-      </c>
-      <c r="F37" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A70)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A70)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+        <v>129</v>
+      </c>
+      <c r="C37" s="1">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1">
+        <v>30</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2">
-        <v>94</v>
-      </c>
-      <c r="C38" s="1" t="str">
-        <f>MID(A22,FIND("bs",A22)+2,FIND("_ep",A22)-FIND("bs",A22)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D38" s="1" t="str">
-        <f>MID(A22,FIND("ep",A22)+2,FIND("_lr",A22)-FIND("ep",A22)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <f>MID(A22,FIND("lr",A22)+2,FIND("_lf",A22)-FIND("lr",A22)-2)</f>
+        <v>71</v>
+      </c>
+      <c r="C38" s="1">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1">
+        <v>40</v>
+      </c>
+      <c r="E38" s="1">
         <v>0.01</v>
       </c>
-      <c r="F38" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A22)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A22)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F38" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2">
-        <v>94</v>
-      </c>
-      <c r="C39" s="1" t="str">
-        <f>MID(A27,FIND("bs",A27)+2,FIND("_ep",A27)-FIND("bs",A27)-2)</f>
+        <v>74</v>
+      </c>
+      <c r="C39" s="1">
         <v>32</v>
       </c>
-      <c r="D39" s="1" t="str">
-        <f>MID(A27,FIND("ep",A27)+2,FIND("_lr",A27)-FIND("ep",A27)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E39" s="1" t="str">
-        <f>MID(A27,FIND("lr",A27)+2,FIND("_lf",A27)-FIND("lr",A27)-2)</f>
-        <v>0.001</v>
-      </c>
-      <c r="F39" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A27)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A27)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="D39" s="1">
+        <v>40</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2">
-        <v>95</v>
-      </c>
-      <c r="C40" s="1" t="e">
-        <f>MID(#REF!,FIND("bs",#REF!)+2,FIND("_ep",#REF!)-FIND("bs",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D40" s="1" t="e">
-        <f>MID(#REF!,FIND("ep",#REF!)+2,FIND("_lr",#REF!)-FIND("ep",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E40" s="1" t="e">
-        <f>MID(#REF!,FIND("lr",#REF!)+2,FIND("_lf",#REF!)-FIND("lr",#REF!)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F40" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",#REF!)),"huber",IF(ISNUMBER(SEARCH("custom_loss",#REF!)),"custom_loss",""))</f>
-        <v/>
+        <v>75</v>
+      </c>
+      <c r="C40" s="1">
+        <v>32</v>
+      </c>
+      <c r="D40" s="1">
+        <v>40</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2">
-        <v>96</v>
-      </c>
-      <c r="C41" s="1" t="str">
-        <f>MID(A50,FIND("bs",A50)+2,FIND("_ep",A50)-FIND("bs",A50)-2)</f>
+        <v>78</v>
+      </c>
+      <c r="C41" s="1">
         <v>16</v>
       </c>
-      <c r="D41" s="1" t="str">
-        <f>MID(A50,FIND("ep",A50)+2,FIND("_lr",A50)-FIND("ep",A50)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E41" s="1" t="str">
-        <f>MID(A50,FIND("lr",A50)+2,FIND("_lf",A50)-FIND("lr",A50)-2)</f>
-        <v>0.0001</v>
-      </c>
-      <c r="F41" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A50)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A50)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="D41" s="1">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2">
+        <v>90</v>
+      </c>
+      <c r="C42" s="1">
+        <v>64</v>
+      </c>
+      <c r="D42" s="1">
+        <v>40</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C42" s="1" t="str">
-        <f>MID(A16,FIND("bs",A16)+2,FIND("_ep",A16)-FIND("bs",A16)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D42" s="1" t="str">
-        <f>MID(A16,FIND("ep",A16)+2,FIND("_lr",A16)-FIND("ep",A16)-2)</f>
-        <v>60</v>
-      </c>
-      <c r="E42" s="1" t="str">
-        <f>MID(A16,FIND("lr",A16)+2,FIND("_lf",A16)-FIND("lr",A16)-2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="F42" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A16)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A16)),"custom_loss",""))</f>
-        <v>huber</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2">
+        <v>90</v>
+      </c>
+      <c r="C43" s="1">
+        <v>64</v>
+      </c>
+      <c r="D43" s="1">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <f>MID(A20,FIND("bs",A20)+2,FIND("_ep",A20)-FIND("bs",A20)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D43" s="1" t="str">
-        <f>MID(A20,FIND("ep",A20)+2,FIND("_lr",A20)-FIND("ep",A20)-2)</f>
-        <v>40</v>
-      </c>
-      <c r="E43" s="1" t="str">
-        <f>MID(A20,FIND("lr",A20)+2,FIND("_lf",A20)-FIND("lr",A20)-2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="F43" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A20)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A20)),"custom_loss",""))</f>
-        <v>huber</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2">
         <v>90</v>
       </c>
-      <c r="B44" s="2">
+      <c r="C44" s="1">
+        <v>64</v>
+      </c>
+      <c r="D44" s="1">
+        <v>40</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C44" s="1" t="str">
-        <f>MID(A86,FIND("bs",A86)+2,FIND("_ep",A86)-FIND("bs",A86)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D44" s="1" t="str">
-        <f>MID(A86,FIND("ep",A86)+2,FIND("_lr",A86)-FIND("ep",A86)-2)</f>
-        <v>40</v>
-      </c>
-      <c r="E44" s="1" t="str">
-        <f>MID(A86,FIND("lr",A86)+2,FIND("_lf",A86)-FIND("lr",A86)-2)</f>
-        <v>0.001</v>
-      </c>
-      <c r="F44" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A86)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A86)),"custom_loss",""))</f>
-        <v>custom_loss</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2">
-        <v>99</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <f>MID(A48,FIND("bs",A48)+2,FIND("_ep",A48)-FIND("bs",A48)-2)</f>
+        <v>91</v>
+      </c>
+      <c r="C45" s="1">
         <v>64</v>
       </c>
-      <c r="D45" s="1" t="str">
-        <f>MID(A48,FIND("ep",A48)+2,FIND("_lr",A48)-FIND("ep",A48)-2)</f>
-        <v>60</v>
-      </c>
-      <c r="E45" s="1" t="str">
-        <f>MID(A48,FIND("lr",A48)+2,FIND("_lf",A48)-FIND("lr",A48)-2)</f>
-        <v>0.0001</v>
-      </c>
-      <c r="F45" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A48)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A48)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="D45" s="1">
+        <v>40</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2">
-        <v>99</v>
-      </c>
-      <c r="C46" s="1" t="str">
-        <f>MID(A80,FIND("bs",A80)+2,FIND("_ep",A80)-FIND("bs",A80)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D46" s="1" t="str">
-        <f>MID(A80,FIND("ep",A80)+2,FIND("_lr",A80)-FIND("ep",A80)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E46" s="1" t="str">
-        <f>MID(A80,FIND("lr",A80)+2,FIND("_lf",A80)-FIND("lr",A80)-2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="F46" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A80)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A80)),"custom_loss",""))</f>
-        <v>huber</v>
+        <v>93</v>
+      </c>
+      <c r="C46" s="1">
+        <v>32</v>
+      </c>
+      <c r="D46" s="1">
+        <v>40</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>99</v>
-      </c>
-      <c r="C47" s="1" t="str">
-        <f>MID(A34,FIND("bs",A34)+2,FIND("_ep",A34)-FIND("bs",A34)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D47" s="1" t="str">
-        <f>MID(A34,FIND("ep",A34)+2,FIND("_lr",A34)-FIND("ep",A34)-2)</f>
-        <v>50</v>
-      </c>
-      <c r="E47" s="1" t="str">
-        <f>MID(A34,FIND("lr",A34)+2,FIND("_lf",A34)-FIND("lr",A34)-2)</f>
+        <v>96</v>
+      </c>
+      <c r="C47" s="1">
+        <v>32</v>
+      </c>
+      <c r="D47" s="1">
+        <v>40</v>
+      </c>
+      <c r="E47" s="1">
         <v>0.0001</v>
       </c>
-      <c r="F47" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A34)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A34)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F47" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B48" s="2">
-        <v>99</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <f>MID(A46,FIND("bs",A46)+2,FIND("_ep",A46)-FIND("bs",A46)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D48" s="1" t="str">
-        <f>MID(A46,FIND("ep",A46)+2,FIND("_lr",A46)-FIND("ep",A46)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E48" s="1" t="str">
-        <f>MID(A46,FIND("lr",A46)+2,FIND("_lf",A46)-FIND("lr",A46)-2)</f>
-        <v>0.001</v>
-      </c>
-      <c r="F48" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A46)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A46)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+        <v>102</v>
+      </c>
+      <c r="C48" s="1">
+        <v>16</v>
+      </c>
+      <c r="D48" s="1">
+        <v>40</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>100</v>
-      </c>
-      <c r="C49" s="1" t="str">
-        <f>MID(A90,FIND("bs",A90)+2,FIND("_ep",A90)-FIND("bs",A90)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D49" s="1" t="str">
-        <f>MID(A90,FIND("ep",A90)+2,FIND("_lr",A90)-FIND("ep",A90)-2)</f>
-        <v>50</v>
-      </c>
-      <c r="E49" s="1" t="str">
-        <f>MID(A90,FIND("lr",A90)+2,FIND("_lf",A90)-FIND("lr",A90)-2)</f>
-        <v>0.001</v>
-      </c>
-      <c r="F49" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A90)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A90)),"custom_loss",""))</f>
-        <v>huber</v>
+        <v>104</v>
+      </c>
+      <c r="C49" s="1">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1">
+        <v>40</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2">
-        <v>100</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <f>MID(A9,FIND("bs",A9)+2,FIND("_ep",A9)-FIND("bs",A9)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D50" s="1" t="str">
-        <f>MID(A9,FIND("ep",A9)+2,FIND("_lr",A9)-FIND("ep",A9)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E50" s="1" t="str">
-        <f>MID(A9,FIND("lr",A9)+2,FIND("_lf",A9)-FIND("lr",A9)-2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="F50" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A9)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A9)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+        <v>108</v>
+      </c>
+      <c r="C50" s="1">
+        <v>64</v>
+      </c>
+      <c r="D50" s="1">
+        <v>40</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
-        <v>101</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <f>MID(A55,FIND("bs",A55)+2,FIND("_ep",A55)-FIND("bs",A55)-2)</f>
+        <v>109</v>
+      </c>
+      <c r="C51" s="1">
         <v>32</v>
       </c>
-      <c r="D51" s="1" t="str">
-        <f>MID(A55,FIND("ep",A55)+2,FIND("_lr",A55)-FIND("ep",A55)-2)</f>
-        <v>25</v>
-      </c>
-      <c r="E51" s="1" t="str">
-        <f>MID(A55,FIND("lr",A55)+2,FIND("_lf",A55)-FIND("lr",A55)-2)</f>
-        <v>0.0001</v>
-      </c>
-      <c r="F51" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A55)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A55)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="D51" s="1">
+        <v>40</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2">
-        <v>101</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <f>MID(A76,FIND("bs",A76)+2,FIND("_ep",A76)-FIND("bs",A76)-2)</f>
+        <v>109</v>
+      </c>
+      <c r="C52" s="1">
         <v>64</v>
       </c>
-      <c r="D52" s="1" t="str">
-        <f>MID(A76,FIND("ep",A76)+2,FIND("_lr",A76)-FIND("ep",A76)-2)</f>
+      <c r="D52" s="1">
         <v>40</v>
       </c>
-      <c r="E52" s="1" t="str">
-        <f>MID(A76,FIND("lr",A76)+2,FIND("_lf",A76)-FIND("lr",A76)-2)</f>
+      <c r="E52" s="1">
         <v>0.001</v>
       </c>
-      <c r="F52" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A76)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A76)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="F52" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="B53" s="2">
-        <v>101</v>
-      </c>
-      <c r="C53" s="1" t="e">
-        <f>MID(A96,FIND("bs",A96)+2,FIND("_ep",A96)-FIND("bs",A96)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="1" t="e">
-        <f>MID(A96,FIND("ep",A96)+2,FIND("_lr",A96)-FIND("ep",A96)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E53" s="1" t="e">
-        <f>MID(A96,FIND("lr",A96)+2,FIND("_lf",A96)-FIND("lr",A96)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A96)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A96)),"custom_loss",""))</f>
-        <v/>
+        <v>112</v>
+      </c>
+      <c r="C53" s="1">
+        <v>16</v>
+      </c>
+      <c r="D53" s="1">
+        <v>40</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B54" s="2">
-        <v>101</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <f>MID(A23,FIND("bs",A23)+2,FIND("_ep",A23)-FIND("bs",A23)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D54" s="1" t="str">
-        <f>MID(A23,FIND("ep",A23)+2,FIND("_lr",A23)-FIND("ep",A23)-2)</f>
-        <v>25</v>
-      </c>
-      <c r="E54" s="1" t="str">
-        <f>MID(A23,FIND("lr",A23)+2,FIND("_lf",A23)-FIND("lr",A23)-2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="F54" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A23)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A23)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+        <v>117</v>
+      </c>
+      <c r="C54" s="1">
+        <v>16</v>
+      </c>
+      <c r="D54" s="1">
+        <v>40</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B55" s="2">
-        <v>101</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <f>MID(A26,FIND("bs",A26)+2,FIND("_ep",A26)-FIND("bs",A26)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D55" s="1" t="str">
-        <f>MID(A26,FIND("ep",A26)+2,FIND("_lr",A26)-FIND("ep",A26)-2)</f>
+        <v>117</v>
+      </c>
+      <c r="C55" s="1">
+        <v>16</v>
+      </c>
+      <c r="D55" s="1">
         <v>40</v>
       </c>
-      <c r="E55" s="1" t="str">
-        <f>MID(A26,FIND("lr",A26)+2,FIND("_lf",A26)-FIND("lr",A26)-2)</f>
-        <v>0.0001</v>
-      </c>
-      <c r="F55" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A26)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A26)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="E55" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="B56" s="2">
-        <v>102</v>
-      </c>
-      <c r="C56" s="1" t="e">
-        <f>MID(A96,FIND("bs",A96)+2,FIND("_ep",A96)-FIND("bs",A96)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D56" s="1" t="e">
-        <f>MID(A96,FIND("ep",A96)+2,FIND("_lr",A96)-FIND("ep",A96)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E56" s="1" t="e">
-        <f>MID(A96,FIND("lr",A96)+2,FIND("_lf",A96)-FIND("lr",A96)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F56" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A96)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A96)),"custom_loss",""))</f>
-        <v/>
+        <v>69</v>
+      </c>
+      <c r="C56" s="1">
+        <v>16</v>
+      </c>
+      <c r="D56" s="1">
+        <v>50</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="B57" s="2">
-        <v>102</v>
-      </c>
-      <c r="C57" s="1" t="e">
-        <f>MID(A101,FIND("bs",A101)+2,FIND("_ep",A101)-FIND("bs",A101)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D57" s="1" t="e">
-        <f>MID(A101,FIND("ep",A101)+2,FIND("_lr",A101)-FIND("ep",A101)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E57" s="1" t="e">
-        <f>MID(A101,FIND("lr",A101)+2,FIND("_lf",A101)-FIND("lr",A101)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F57" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A101)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A101)),"custom_loss",""))</f>
-        <v/>
+        <v>73</v>
+      </c>
+      <c r="C57" s="1">
+        <v>16</v>
+      </c>
+      <c r="D57" s="1">
+        <v>50</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2">
-        <v>102</v>
-      </c>
-      <c r="C58" s="1" t="str">
-        <f>MID(A20,FIND("bs",A20)+2,FIND("_ep",A20)-FIND("bs",A20)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D58" s="1" t="str">
-        <f>MID(A20,FIND("ep",A20)+2,FIND("_lr",A20)-FIND("ep",A20)-2)</f>
-        <v>40</v>
-      </c>
-      <c r="E58" s="1" t="str">
-        <f>MID(A20,FIND("lr",A20)+2,FIND("_lf",A20)-FIND("lr",A20)-2)</f>
+        <v>73</v>
+      </c>
+      <c r="C58" s="1">
+        <v>32</v>
+      </c>
+      <c r="D58" s="1">
+        <v>50</v>
+      </c>
+      <c r="E58" s="1">
         <v>0.01</v>
       </c>
-      <c r="F58" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A20)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A20)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="F58" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2">
-        <v>102</v>
-      </c>
-      <c r="C59" s="1" t="str">
-        <f>MID(A27,FIND("bs",A27)+2,FIND("_ep",A27)-FIND("bs",A27)-2)</f>
+        <v>74</v>
+      </c>
+      <c r="C59" s="1">
         <v>32</v>
       </c>
-      <c r="D59" s="1" t="str">
-        <f>MID(A27,FIND("ep",A27)+2,FIND("_lr",A27)-FIND("ep",A27)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E59" s="1" t="str">
-        <f>MID(A27,FIND("lr",A27)+2,FIND("_lf",A27)-FIND("lr",A27)-2)</f>
-        <v>0.001</v>
-      </c>
-      <c r="F59" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A27)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A27)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="D59" s="1">
+        <v>50</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2">
-        <v>102</v>
-      </c>
-      <c r="C60" s="1" t="str">
-        <f>MID(A55,FIND("bs",A55)+2,FIND("_ep",A55)-FIND("bs",A55)-2)</f>
-        <v>32</v>
-      </c>
-      <c r="D60" s="1" t="str">
-        <f>MID(A55,FIND("ep",A55)+2,FIND("_lr",A55)-FIND("ep",A55)-2)</f>
-        <v>25</v>
-      </c>
-      <c r="E60" s="1" t="str">
-        <f>MID(A55,FIND("lr",A55)+2,FIND("_lf",A55)-FIND("lr",A55)-2)</f>
-        <v>0.0001</v>
-      </c>
-      <c r="F60" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A55)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A55)),"custom_loss",""))</f>
-        <v>huber</v>
+        <v>77</v>
+      </c>
+      <c r="C60" s="1">
+        <v>64</v>
+      </c>
+      <c r="D60" s="1">
+        <v>50</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B61" s="2">
-        <v>103</v>
-      </c>
-      <c r="C61" s="1" t="str">
-        <f>MID(A77,FIND("bs",A77)+2,FIND("_ep",A77)-FIND("bs",A77)-2)</f>
+        <v>93</v>
+      </c>
+      <c r="C61" s="1">
         <v>32</v>
       </c>
-      <c r="D61" s="1" t="str">
-        <f>MID(A77,FIND("ep",A77)+2,FIND("_lr",A77)-FIND("ep",A77)-2)</f>
+      <c r="D61" s="1">
         <v>50</v>
       </c>
-      <c r="E61" s="1" t="str">
-        <f>MID(A77,FIND("lr",A77)+2,FIND("_lf",A77)-FIND("lr",A77)-2)</f>
+      <c r="E61" s="1">
         <v>0.001</v>
       </c>
-      <c r="F61" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A77)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A77)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F61" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2">
-        <v>104</v>
-      </c>
-      <c r="C62" s="1" t="str">
-        <f>MID(A74,FIND("bs",A74)+2,FIND("_ep",A74)-FIND("bs",A74)-2)</f>
+        <v>93</v>
+      </c>
+      <c r="C62" s="1">
         <v>64</v>
       </c>
-      <c r="D62" s="1" t="str">
-        <f>MID(A74,FIND("ep",A74)+2,FIND("_lr",A74)-FIND("ep",A74)-2)</f>
-        <v>60</v>
-      </c>
-      <c r="E62" s="1" t="str">
-        <f>MID(A74,FIND("lr",A74)+2,FIND("_lf",A74)-FIND("lr",A74)-2)</f>
-        <v>0.001</v>
-      </c>
-      <c r="F62" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A74)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A74)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="D62" s="1">
+        <v>50</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B63" s="2">
-        <v>104</v>
-      </c>
-      <c r="C63" s="1" t="str">
-        <f>MID(A84,FIND("bs",A84)+2,FIND("_ep",A84)-FIND("bs",A84)-2)</f>
+        <v>96</v>
+      </c>
+      <c r="C63" s="1">
         <v>16</v>
       </c>
-      <c r="D63" s="1" t="str">
-        <f>MID(A84,FIND("ep",A84)+2,FIND("_lr",A84)-FIND("ep",A84)-2)</f>
-        <v>25</v>
-      </c>
-      <c r="E63" s="1" t="str">
-        <f>MID(A84,FIND("lr",A84)+2,FIND("_lf",A84)-FIND("lr",A84)-2)</f>
-        <v>0.001</v>
-      </c>
-      <c r="F63" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A84)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A84)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="D63" s="1">
+        <v>50</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2">
-        <v>104</v>
-      </c>
-      <c r="C64" s="1" t="str">
-        <f>MID(A91,FIND("bs",A91)+2,FIND("_ep",A91)-FIND("bs",A91)-2)</f>
-        <v>32</v>
-      </c>
-      <c r="D64" s="1" t="str">
-        <f>MID(A91,FIND("ep",A91)+2,FIND("_lr",A91)-FIND("ep",A91)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E64" s="1" t="str">
-        <f>MID(A91,FIND("lr",A91)+2,FIND("_lf",A91)-FIND("lr",A91)-2)</f>
+        <v>100</v>
+      </c>
+      <c r="C64" s="1">
+        <v>64</v>
+      </c>
+      <c r="D64" s="1">
+        <v>50</v>
+      </c>
+      <c r="E64" s="1">
         <v>0.01</v>
       </c>
-      <c r="F64" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A91)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A91)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="F64" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B65" s="2">
-        <v>104</v>
-      </c>
-      <c r="C65" s="1" t="str">
-        <f>MID(A30,FIND("bs",A30)+2,FIND("_ep",A30)-FIND("bs",A30)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D65" s="1" t="str">
-        <f>MID(A30,FIND("ep",A30)+2,FIND("_lr",A30)-FIND("ep",A30)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E65" s="1" t="str">
-        <f>MID(A30,FIND("lr",A30)+2,FIND("_lf",A30)-FIND("lr",A30)-2)</f>
+        <v>101</v>
+      </c>
+      <c r="C65" s="1">
+        <v>32</v>
+      </c>
+      <c r="D65" s="1">
+        <v>50</v>
+      </c>
+      <c r="E65" s="1">
         <v>0.0001</v>
       </c>
-      <c r="F65" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A30)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A30)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="F65" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2">
-        <v>104</v>
-      </c>
-      <c r="C66" s="1" t="str">
-        <f>MID(A46,FIND("bs",A46)+2,FIND("_ep",A46)-FIND("bs",A46)-2)</f>
+        <v>102</v>
+      </c>
+      <c r="C66" s="1">
         <v>64</v>
       </c>
-      <c r="D66" s="1" t="str">
-        <f>MID(A46,FIND("ep",A46)+2,FIND("_lr",A46)-FIND("ep",A46)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E66" s="1" t="str">
-        <f>MID(A46,FIND("lr",A46)+2,FIND("_lf",A46)-FIND("lr",A46)-2)</f>
+      <c r="D66" s="1">
+        <v>50</v>
+      </c>
+      <c r="E66" s="1">
         <v>0.001</v>
       </c>
-      <c r="F66" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A46)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A46)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F66" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2">
-        <v>104</v>
-      </c>
-      <c r="C67" s="1" t="str">
-        <f>MID(A50,FIND("bs",A50)+2,FIND("_ep",A50)-FIND("bs",A50)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D67" s="1" t="str">
-        <f>MID(A50,FIND("ep",A50)+2,FIND("_lr",A50)-FIND("ep",A50)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E67" s="1" t="str">
-        <f>MID(A50,FIND("lr",A50)+2,FIND("_lf",A50)-FIND("lr",A50)-2)</f>
+        <v>102</v>
+      </c>
+      <c r="C67" s="1">
+        <v>64</v>
+      </c>
+      <c r="D67" s="1">
+        <v>50</v>
+      </c>
+      <c r="E67" s="1">
         <v>0.0001</v>
       </c>
-      <c r="F67" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A50)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A50)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="F67" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B68" s="2">
-        <v>106</v>
-      </c>
-      <c r="C68" s="1" t="str">
-        <f>MID(A86,FIND("bs",A86)+2,FIND("_ep",A86)-FIND("bs",A86)-2)</f>
+        <v>104</v>
+      </c>
+      <c r="C68" s="1">
         <v>16</v>
       </c>
-      <c r="D68" s="1" t="str">
-        <f>MID(A86,FIND("ep",A86)+2,FIND("_lr",A86)-FIND("ep",A86)-2)</f>
-        <v>40</v>
-      </c>
-      <c r="E68" s="1" t="str">
-        <f>MID(A86,FIND("lr",A86)+2,FIND("_lf",A86)-FIND("lr",A86)-2)</f>
-        <v>0.001</v>
-      </c>
-      <c r="F68" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A86)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A86)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="D68" s="1">
+        <v>50</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B69" s="2">
-        <v>106</v>
-      </c>
-      <c r="C69" s="1" t="str">
-        <f>MID(A59,FIND("bs",A59)+2,FIND("_ep",A59)-FIND("bs",A59)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D69" s="1" t="str">
-        <f>MID(A59,FIND("ep",A59)+2,FIND("_lr",A59)-FIND("ep",A59)-2)</f>
-        <v>60</v>
-      </c>
-      <c r="E69" s="1" t="str">
-        <f>MID(A59,FIND("lr",A59)+2,FIND("_lf",A59)-FIND("lr",A59)-2)</f>
+        <v>104</v>
+      </c>
+      <c r="C69" s="1">
+        <v>32</v>
+      </c>
+      <c r="D69" s="1">
+        <v>50</v>
+      </c>
+      <c r="E69" s="1">
         <v>0.0001</v>
       </c>
-      <c r="F69" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A59)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A59)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="F69" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B70" s="2">
-        <v>107</v>
-      </c>
-      <c r="C70" s="1" t="str">
-        <f>MID(A70,FIND("bs",A70)+2,FIND("_ep",A70)-FIND("bs",A70)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D70" s="1" t="str">
-        <f>MID(A70,FIND("ep",A70)+2,FIND("_lr",A70)-FIND("ep",A70)-2)</f>
-        <v>25</v>
-      </c>
-      <c r="E70" s="1" t="str">
-        <f>MID(A70,FIND("lr",A70)+2,FIND("_lf",A70)-FIND("lr",A70)-2)</f>
-        <v>0.0001</v>
-      </c>
-      <c r="F70" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A70)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A70)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+        <v>110</v>
+      </c>
+      <c r="C70" s="1">
+        <v>32</v>
+      </c>
+      <c r="D70" s="1">
+        <v>50</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B71" s="2">
-        <v>108</v>
-      </c>
-      <c r="C71" s="1" t="e">
-        <f>MID(A108,FIND("bs",A108)+2,FIND("_ep",A108)-FIND("bs",A108)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D71" s="1" t="e">
-        <f>MID(A108,FIND("ep",A108)+2,FIND("_lr",A108)-FIND("ep",A108)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E71" s="1" t="e">
-        <f>MID(A108,FIND("lr",A108)+2,FIND("_lf",A108)-FIND("lr",A108)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F71" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A108)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A108)),"custom_loss",""))</f>
-        <v/>
+        <v>112</v>
+      </c>
+      <c r="C71" s="1">
+        <v>16</v>
+      </c>
+      <c r="D71" s="1">
+        <v>50</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2">
-        <v>108</v>
-      </c>
-      <c r="C72" s="1" t="str">
-        <f>MID(A32,FIND("bs",A32)+2,FIND("_ep",A32)-FIND("bs",A32)-2)</f>
-        <v>32</v>
-      </c>
-      <c r="D72" s="1" t="str">
-        <f>MID(A32,FIND("ep",A32)+2,FIND("_lr",A32)-FIND("ep",A32)-2)</f>
-        <v>40</v>
-      </c>
-      <c r="E72" s="1" t="str">
-        <f>MID(A32,FIND("lr",A32)+2,FIND("_lf",A32)-FIND("lr",A32)-2)</f>
+        <v>119</v>
+      </c>
+      <c r="C72" s="1">
+        <v>64</v>
+      </c>
+      <c r="D72" s="1">
+        <v>50</v>
+      </c>
+      <c r="E72" s="1">
         <v>0.001</v>
       </c>
-      <c r="F72" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A32)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A32)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F72" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B73" s="2">
-        <v>108</v>
-      </c>
-      <c r="C73" s="1" t="str">
-        <f>MID(A45,FIND("bs",A45)+2,FIND("_ep",A45)-FIND("bs",A45)-2)</f>
+        <v>121</v>
+      </c>
+      <c r="C73" s="1">
         <v>16</v>
       </c>
-      <c r="D73" s="1" t="str">
-        <f>MID(A45,FIND("ep",A45)+2,FIND("_lr",A45)-FIND("ep",A45)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E73" s="1" t="str">
-        <f>MID(A45,FIND("lr",A45)+2,FIND("_lf",A45)-FIND("lr",A45)-2)</f>
-        <v>0.0001</v>
-      </c>
-      <c r="F73" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A45)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A45)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="D73" s="1">
+        <v>50</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B74" s="2">
-        <v>108</v>
-      </c>
-      <c r="C74" s="1" t="str">
-        <f>MID(A73,FIND("bs",A73)+2,FIND("_ep",A73)-FIND("bs",A73)-2)</f>
+        <v>71</v>
+      </c>
+      <c r="C74" s="1">
         <v>32</v>
       </c>
-      <c r="D74" s="1" t="str">
-        <f>MID(A73,FIND("ep",A73)+2,FIND("_lr",A73)-FIND("ep",A73)-2)</f>
-        <v>25</v>
-      </c>
-      <c r="E74" s="1" t="str">
-        <f>MID(A73,FIND("lr",A73)+2,FIND("_lf",A73)-FIND("lr",A73)-2)</f>
-        <v>0.001</v>
-      </c>
-      <c r="F74" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A73)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A73)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="D74" s="1">
+        <v>60</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B75" s="2">
-        <v>109</v>
-      </c>
-      <c r="C75" s="1" t="str">
-        <f>MID(A53,FIND("bs",A53)+2,FIND("_ep",A53)-FIND("bs",A53)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D75" s="1" t="str">
-        <f>MID(A53,FIND("ep",A53)+2,FIND("_lr",A53)-FIND("ep",A53)-2)</f>
+        <v>72</v>
+      </c>
+      <c r="C75" s="1">
+        <v>16</v>
+      </c>
+      <c r="D75" s="1">
         <v>60</v>
       </c>
-      <c r="E75" s="1" t="str">
-        <f>MID(A53,FIND("lr",A53)+2,FIND("_lf",A53)-FIND("lr",A53)-2)</f>
-        <v>0.001</v>
-      </c>
-      <c r="F75" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A53)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A53)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="E75" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B76" s="2">
-        <v>109</v>
-      </c>
-      <c r="C76" s="1" t="str">
-        <f>MID(A69,FIND("bs",A69)+2,FIND("_ep",A69)-FIND("bs",A69)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D76" s="1" t="str">
-        <f>MID(A69,FIND("ep",A69)+2,FIND("_lr",A69)-FIND("ep",A69)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E76" s="1" t="str">
-        <f>MID(A69,FIND("lr",A69)+2,FIND("_lf",A69)-FIND("lr",A69)-2)</f>
-        <v>0.001</v>
-      </c>
-      <c r="F76" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A69)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A69)),"custom_loss",""))</f>
-        <v>huber</v>
+        <v>73</v>
+      </c>
+      <c r="C76" s="1">
+        <v>32</v>
+      </c>
+      <c r="D76" s="1">
+        <v>60</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B77" s="2">
-        <v>110</v>
-      </c>
-      <c r="C77" s="1" t="e">
-        <f>MID(A102,FIND("bs",A102)+2,FIND("_ep",A102)-FIND("bs",A102)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D77" s="1" t="e">
-        <f>MID(A102,FIND("ep",A102)+2,FIND("_lr",A102)-FIND("ep",A102)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E77" s="1" t="e">
-        <f>MID(A102,FIND("lr",A102)+2,FIND("_lf",A102)-FIND("lr",A102)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F77" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A102)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A102)),"custom_loss",""))</f>
-        <v/>
+        <v>75</v>
+      </c>
+      <c r="C77" s="1">
+        <v>16</v>
+      </c>
+      <c r="D77" s="1">
+        <v>60</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B78" s="2">
-        <v>110</v>
-      </c>
-      <c r="C78" s="1" t="e">
-        <f>MID(A109,FIND("bs",A109)+2,FIND("_ep",A109)-FIND("bs",A109)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D78" s="1" t="e">
-        <f>MID(A109,FIND("ep",A109)+2,FIND("_lr",A109)-FIND("ep",A109)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E78" s="1" t="e">
-        <f>MID(A109,FIND("lr",A109)+2,FIND("_lf",A109)-FIND("lr",A109)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F78" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A109)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A109)),"custom_loss",""))</f>
-        <v/>
+        <v>92</v>
+      </c>
+      <c r="C78" s="1">
+        <v>32</v>
+      </c>
+      <c r="D78" s="1">
+        <v>60</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B79" s="2">
-        <v>110</v>
-      </c>
-      <c r="C79" s="1" t="str">
-        <f>MID(A54,FIND("bs",A54)+2,FIND("_ep",A54)-FIND("bs",A54)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D79" s="1" t="str">
-        <f>MID(A54,FIND("ep",A54)+2,FIND("_lr",A54)-FIND("ep",A54)-2)</f>
+        <v>94</v>
+      </c>
+      <c r="C79" s="1">
+        <v>32</v>
+      </c>
+      <c r="D79" s="1">
         <v>60</v>
       </c>
-      <c r="E79" s="1" t="str">
-        <f>MID(A54,FIND("lr",A54)+2,FIND("_lf",A54)-FIND("lr",A54)-2)</f>
+      <c r="E79" s="1">
         <v>0.001</v>
       </c>
-      <c r="F79" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A54)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A54)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="F79" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2">
-        <v>111</v>
-      </c>
-      <c r="C80" s="1" t="str">
-        <f>MID(A71,FIND("bs",A71)+2,FIND("_ep",A71)-FIND("bs",A71)-2)</f>
+        <v>97</v>
+      </c>
+      <c r="C80" s="1">
         <v>64</v>
       </c>
-      <c r="D80" s="1" t="str">
-        <f>MID(A71,FIND("ep",A71)+2,FIND("_lr",A71)-FIND("ep",A71)-2)</f>
-        <v>40</v>
-      </c>
-      <c r="E80" s="1" t="str">
-        <f>MID(A71,FIND("lr",A71)+2,FIND("_lf",A71)-FIND("lr",A71)-2)</f>
-        <v>0.001</v>
-      </c>
-      <c r="F80" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A71)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A71)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="D80" s="1">
+        <v>60</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2">
-        <v>112</v>
-      </c>
-      <c r="C81" s="1" t="str">
-        <f>MID(A87,FIND("bs",A87)+2,FIND("_ep",A87)-FIND("bs",A87)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D81" s="1" t="str">
-        <f>MID(A87,FIND("ep",A87)+2,FIND("_lr",A87)-FIND("ep",A87)-2)</f>
-        <v>40</v>
-      </c>
-      <c r="E81" s="1" t="str">
-        <f>MID(A87,FIND("lr",A87)+2,FIND("_lf",A87)-FIND("lr",A87)-2)</f>
-        <v>0.001</v>
-      </c>
-      <c r="F81" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A87)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A87)),"custom_loss",""))</f>
-        <v>huber</v>
+        <v>99</v>
+      </c>
+      <c r="C81" s="1">
+        <v>64</v>
+      </c>
+      <c r="D81" s="1">
+        <v>60</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B82" s="2">
-        <v>112</v>
-      </c>
-      <c r="C82" s="1" t="e">
-        <f>MID(A92,FIND("bs",A92)+2,FIND("_ep",A92)-FIND("bs",A92)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D82" s="1" t="e">
-        <f>MID(A92,FIND("ep",A92)+2,FIND("_lr",A92)-FIND("ep",A92)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E82" s="1" t="e">
-        <f>MID(A92,FIND("lr",A92)+2,FIND("_lf",A92)-FIND("lr",A92)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F82" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A92)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A92)),"custom_loss",""))</f>
-        <v/>
+        <v>101</v>
+      </c>
+      <c r="C82" s="1">
+        <v>16</v>
+      </c>
+      <c r="D82" s="1">
+        <v>60</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2">
-        <v>113</v>
-      </c>
-      <c r="C83" s="1" t="e">
-        <f>MID(A96,FIND("bs",A96)+2,FIND("_ep",A96)-FIND("bs",A96)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D83" s="1" t="e">
-        <f>MID(A96,FIND("ep",A96)+2,FIND("_lr",A96)-FIND("ep",A96)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E83" s="1" t="e">
-        <f>MID(A96,FIND("lr",A96)+2,FIND("_lf",A96)-FIND("lr",A96)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F83" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A96)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A96)),"custom_loss",""))</f>
-        <v/>
+        <v>101</v>
+      </c>
+      <c r="C83" s="1">
+        <v>64</v>
+      </c>
+      <c r="D83" s="1">
+        <v>60</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2">
-        <v>116</v>
-      </c>
-      <c r="C84" s="1" t="str">
-        <f>MID(A41,FIND("bs",A41)+2,FIND("_ep",A41)-FIND("bs",A41)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D84" s="1" t="str">
-        <f>MID(A41,FIND("ep",A41)+2,FIND("_lr",A41)-FIND("ep",A41)-2)</f>
-        <v>50</v>
-      </c>
-      <c r="E84" s="1" t="str">
-        <f>MID(A41,FIND("lr",A41)+2,FIND("_lf",A41)-FIND("lr",A41)-2)</f>
-        <v>0.0001</v>
-      </c>
-      <c r="F84" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A41)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A41)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+        <v>102</v>
+      </c>
+      <c r="C84" s="1">
+        <v>64</v>
+      </c>
+      <c r="D84" s="1">
+        <v>60</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="B85" s="2">
-        <v>116</v>
-      </c>
-      <c r="C85" s="1" t="str">
-        <f>MID(A85,FIND("bs",A85)+2,FIND("_ep",A85)-FIND("bs",A85)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D85" s="1" t="str">
-        <f>MID(A85,FIND("ep",A85)+2,FIND("_lr",A85)-FIND("ep",A85)-2)</f>
+        <v>102</v>
+      </c>
+      <c r="C85" s="1">
+        <v>16</v>
+      </c>
+      <c r="D85" s="1">
         <v>60</v>
       </c>
-      <c r="E85" s="1" t="str">
-        <f>MID(A85,FIND("lr",A85)+2,FIND("_lf",A85)-FIND("lr",A85)-2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="F85" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A85)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A85)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="E85" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B86" s="2">
-        <v>117</v>
-      </c>
-      <c r="C86" s="1" t="e">
-        <f>MID(A93,FIND("bs",A93)+2,FIND("_ep",A93)-FIND("bs",A93)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D86" s="1" t="e">
-        <f>MID(A93,FIND("ep",A93)+2,FIND("_lr",A93)-FIND("ep",A93)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E86" s="1" t="e">
-        <f>MID(A93,FIND("lr",A93)+2,FIND("_lf",A93)-FIND("lr",A93)-2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F86" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A93)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A93)),"custom_loss",""))</f>
-        <v/>
+        <v>104</v>
+      </c>
+      <c r="C86" s="1">
+        <v>16</v>
+      </c>
+      <c r="D86" s="1">
+        <v>60</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B87" s="2">
-        <v>117</v>
-      </c>
-      <c r="C87" s="1" t="str">
-        <f>MID(A50,FIND("bs",A50)+2,FIND("_ep",A50)-FIND("bs",A50)-2)</f>
-        <v>16</v>
-      </c>
-      <c r="D87" s="1" t="str">
-        <f>MID(A50,FIND("ep",A50)+2,FIND("_lr",A50)-FIND("ep",A50)-2)</f>
-        <v>30</v>
-      </c>
-      <c r="E87" s="1" t="str">
-        <f>MID(A50,FIND("lr",A50)+2,FIND("_lf",A50)-FIND("lr",A50)-2)</f>
+        <v>104</v>
+      </c>
+      <c r="C87" s="1">
+        <v>32</v>
+      </c>
+      <c r="D87" s="1">
+        <v>60</v>
+      </c>
+      <c r="E87" s="1">
         <v>0.0001</v>
       </c>
-      <c r="F87" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A50)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A50)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="F87" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B88" s="2">
-        <v>118</v>
-      </c>
-      <c r="C88" s="1" t="str">
-        <f>MID(A89,FIND("bs",A89)+2,FIND("_ep",A89)-FIND("bs",A89)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D88" s="1" t="str">
-        <f>MID(A89,FIND("ep",A89)+2,FIND("_lr",A89)-FIND("ep",A89)-2)</f>
-        <v>50</v>
-      </c>
-      <c r="E88" s="1" t="str">
-        <f>MID(A89,FIND("lr",A89)+2,FIND("_lf",A89)-FIND("lr",A89)-2)</f>
-        <v>0.001</v>
-      </c>
-      <c r="F88" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A89)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A89)),"custom_loss",""))</f>
-        <v>huber</v>
+        <v>104</v>
+      </c>
+      <c r="C88" s="1">
+        <v>32</v>
+      </c>
+      <c r="D88" s="1">
+        <v>60</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2">
-        <v>119</v>
-      </c>
-      <c r="C89" s="1" t="str">
-        <f>MID(A85,FIND("bs",A85)+2,FIND("_ep",A85)-FIND("bs",A85)-2)</f>
+        <v>108</v>
+      </c>
+      <c r="C89" s="1">
         <v>64</v>
       </c>
-      <c r="D89" s="1" t="str">
-        <f>MID(A85,FIND("ep",A85)+2,FIND("_lr",A85)-FIND("ep",A85)-2)</f>
+      <c r="D89" s="1">
         <v>60</v>
       </c>
-      <c r="E89" s="1" t="str">
-        <f>MID(A85,FIND("lr",A85)+2,FIND("_lf",A85)-FIND("lr",A85)-2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="F89" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A85)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A85)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="E89" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B90" s="2">
-        <v>121</v>
-      </c>
-      <c r="C90" s="1" t="str">
-        <f>MID(A56,FIND("bs",A56)+2,FIND("_ep",A56)-FIND("bs",A56)-2)</f>
-        <v>64</v>
-      </c>
-      <c r="D90" s="1" t="str">
-        <f>MID(A56,FIND("ep",A56)+2,FIND("_lr",A56)-FIND("ep",A56)-2)</f>
-        <v>50</v>
-      </c>
-      <c r="E90" s="1" t="str">
-        <f>MID(A56,FIND("lr",A56)+2,FIND("_lf",A56)-FIND("lr",A56)-2)</f>
+        <v>113</v>
+      </c>
+      <c r="C90" s="1">
+        <v>16</v>
+      </c>
+      <c r="D90" s="1">
+        <v>60</v>
+      </c>
+      <c r="E90" s="1">
         <v>0.001</v>
       </c>
-      <c r="F90" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A56)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A56)),"custom_loss",""))</f>
-        <v>custom_loss</v>
+      <c r="F90" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2">
-        <v>129</v>
-      </c>
-      <c r="C91" s="1" t="str">
-        <f>MID(A67,FIND("bs",A67)+2,FIND("_ep",A67)-FIND("bs",A67)-2)</f>
-        <v>32</v>
-      </c>
-      <c r="D91" s="1" t="str">
-        <f>MID(A67,FIND("ep",A67)+2,FIND("_lr",A67)-FIND("ep",A67)-2)</f>
+        <v>116</v>
+      </c>
+      <c r="C91" s="1">
+        <v>64</v>
+      </c>
+      <c r="D91" s="1">
         <v>60</v>
       </c>
-      <c r="E91" s="1" t="str">
-        <f>MID(A67,FIND("lr",A67)+2,FIND("_lf",A67)-FIND("lr",A67)-2)</f>
-        <v>0.0001</v>
-      </c>
-      <c r="F91" s="1" t="str">
-        <f>IF(ISNUMBER(SEARCH("huber",A67)),"huber",IF(ISNUMBER(SEARCH("custom_loss",A67)),"custom_loss",""))</f>
-        <v>huber</v>
+      <c r="E91" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -11361,7 +11008,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="17.53125"/>
     <col bestFit="1" min="2" max="2" width="17.69140625"/>
@@ -11369,15 +11016,15 @@
   <sheetData>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B4">
         <v>1695</v>
@@ -11385,7 +11032,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>850</v>
@@ -11393,7 +11040,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6">
         <v>293</v>
@@ -11401,7 +11048,7 @@
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7">
         <v>107</v>
@@ -11409,7 +11056,7 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8">
         <v>93</v>
@@ -11417,7 +11064,7 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9">
         <v>93</v>
@@ -11425,7 +11072,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10">
         <v>331</v>
@@ -11433,7 +11080,7 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>118</v>
@@ -11441,7 +11088,7 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12">
         <v>103</v>
@@ -11449,7 +11096,7 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>110</v>
@@ -11457,7 +11104,7 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14">
         <v>226</v>
@@ -11465,7 +11112,7 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B15">
         <v>67</v>
@@ -11473,7 +11120,7 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16">
         <v>71</v>
@@ -11481,7 +11128,7 @@
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17">
         <v>88</v>
@@ -11489,7 +11136,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B18">
         <v>845</v>
@@ -11497,7 +11144,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19">
         <v>289</v>
@@ -11505,7 +11152,7 @@
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20">
         <v>95</v>
@@ -11513,7 +11160,7 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21">
         <v>101</v>
@@ -11521,7 +11168,7 @@
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22">
         <v>93</v>
@@ -11529,7 +11176,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23">
         <v>323</v>
@@ -11537,7 +11184,7 @@
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B24">
         <v>116</v>
@@ -11545,7 +11192,7 @@
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25">
         <v>108</v>
@@ -11553,7 +11200,7 @@
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26">
         <v>99</v>
@@ -11561,7 +11208,7 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B27">
         <v>233</v>
@@ -11569,7 +11216,7 @@
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B28">
         <v>69</v>
@@ -11577,7 +11224,7 @@
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B29">
         <v>70</v>
@@ -11585,7 +11232,7 @@
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B30">
         <v>94</v>
@@ -11601,7 +11248,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B32">
         <v>823</v>
@@ -11609,7 +11256,7 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B33">
         <v>299</v>
@@ -11617,7 +11264,7 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B34">
         <v>99</v>
@@ -11625,7 +11272,7 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B35">
         <v>106</v>
@@ -11633,7 +11280,7 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B36">
         <v>94</v>
@@ -11641,7 +11288,7 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B37">
         <v>291</v>
@@ -11649,7 +11296,7 @@
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B38">
         <v>101</v>
@@ -11657,7 +11304,7 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39">
         <v>91</v>
@@ -11665,7 +11312,7 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B40">
         <v>99</v>
@@ -11673,7 +11320,7 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B41">
         <v>233</v>
@@ -11681,7 +11328,7 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B42">
         <v>72</v>
@@ -11689,7 +11336,7 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B43">
         <v>76</v>
@@ -11697,7 +11344,7 @@
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B44">
         <v>85</v>
@@ -11705,7 +11352,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B45">
         <v>935</v>
@@ -11713,7 +11360,7 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46">
         <v>288</v>
@@ -11721,7 +11368,7 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47">
         <v>100</v>
@@ -11729,7 +11376,7 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48">
         <v>96</v>
@@ -11737,7 +11384,7 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49">
         <v>92</v>
@@ -11745,7 +11392,7 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50">
         <v>324</v>
@@ -11753,7 +11400,7 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B51">
         <v>108</v>
@@ -11761,7 +11408,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B52">
         <v>110</v>
@@ -11769,7 +11416,7 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53">
         <v>106</v>
@@ -11777,7 +11424,7 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B54">
         <v>323</v>
@@ -11785,7 +11432,7 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B55">
         <v>83</v>
@@ -11793,7 +11440,7 @@
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56">
         <v>129</v>
@@ -11801,7 +11448,7 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B57">
         <v>111</v>
@@ -11817,7 +11464,7 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>859</v>
@@ -11825,7 +11472,7 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B60">
         <v>306</v>
@@ -11833,7 +11480,7 @@
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B61">
         <v>112</v>
@@ -11841,7 +11488,7 @@
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B62">
         <v>104</v>
@@ -11849,7 +11496,7 @@
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63">
         <v>90</v>
@@ -11857,7 +11504,7 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B64">
         <v>318</v>
@@ -11865,7 +11512,7 @@
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>117</v>
@@ -11873,7 +11520,7 @@
     </row>
     <row r="66">
       <c r="A66" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>93</v>
@@ -11881,7 +11528,7 @@
     </row>
     <row r="67">
       <c r="A67" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>108</v>
@@ -11889,7 +11536,7 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B68">
         <v>235</v>
@@ -11897,7 +11544,7 @@
     </row>
     <row r="69">
       <c r="A69" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B69">
         <v>71</v>
@@ -11905,7 +11552,7 @@
     </row>
     <row r="70">
       <c r="A70" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B70">
         <v>74</v>
@@ -11913,7 +11560,7 @@
     </row>
     <row r="71">
       <c r="A71" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B71">
         <v>90</v>
@@ -11921,7 +11568,7 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B72">
         <v>867</v>
@@ -11929,7 +11576,7 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B73">
         <v>288</v>
@@ -11937,7 +11584,7 @@
     </row>
     <row r="74">
       <c r="A74" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B74">
         <v>102</v>
@@ -11945,7 +11592,7 @@
     </row>
     <row r="75">
       <c r="A75" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B75">
         <v>96</v>
@@ -11953,7 +11600,7 @@
     </row>
     <row r="76">
       <c r="A76" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B76">
         <v>90</v>
@@ -11961,7 +11608,7 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B77">
         <v>335</v>
@@ -11969,7 +11616,7 @@
     </row>
     <row r="78">
       <c r="A78" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B78">
         <v>117</v>
@@ -11977,7 +11624,7 @@
     </row>
     <row r="79">
       <c r="A79" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79">
         <v>109</v>
@@ -11985,7 +11632,7 @@
     </row>
     <row r="80">
       <c r="A80" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B80">
         <v>109</v>
@@ -11993,7 +11640,7 @@
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B81">
         <v>244</v>
@@ -12001,7 +11648,7 @@
     </row>
     <row r="82">
       <c r="A82" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B82">
         <v>78</v>
@@ -12009,7 +11656,7 @@
     </row>
     <row r="83">
       <c r="A83" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B83">
         <v>75</v>
@@ -12017,7 +11664,7 @@
     </row>
     <row r="84">
       <c r="A84" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B84">
         <v>91</v>
@@ -12033,7 +11680,7 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B86">
         <v>856</v>
@@ -12041,7 +11688,7 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87">
         <v>290</v>
@@ -12049,7 +11696,7 @@
     </row>
     <row r="88">
       <c r="A88" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B88">
         <v>96</v>
@@ -12057,7 +11704,7 @@
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B89">
         <v>101</v>
@@ -12065,7 +11712,7 @@
     </row>
     <row r="90">
       <c r="A90" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B90">
         <v>93</v>
@@ -12073,7 +11720,7 @@
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B91">
         <v>324</v>
@@ -12081,7 +11728,7 @@
     </row>
     <row r="92">
       <c r="A92" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B92">
         <v>112</v>
@@ -12089,7 +11736,7 @@
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B93">
         <v>110</v>
@@ -12097,7 +11744,7 @@
     </row>
     <row r="94">
       <c r="A94" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B94">
         <v>102</v>
@@ -12105,7 +11752,7 @@
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95">
         <v>242</v>
@@ -12113,7 +11760,7 @@
     </row>
     <row r="96">
       <c r="A96" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>69</v>
@@ -12121,7 +11768,7 @@
     </row>
     <row r="97">
       <c r="A97" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>73</v>
@@ -12129,7 +11776,7 @@
     </row>
     <row r="98">
       <c r="A98" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B98">
         <v>100</v>
@@ -12137,7 +11784,7 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>867</v>
@@ -12145,7 +11792,7 @@
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>310</v>
@@ -12153,7 +11800,7 @@
     </row>
     <row r="101">
       <c r="A101" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
         <v>104</v>
@@ -12161,7 +11808,7 @@
     </row>
     <row r="102">
       <c r="A102" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>104</v>
@@ -12169,7 +11816,7 @@
     </row>
     <row r="103">
       <c r="A103" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -12177,7 +11824,7 @@
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>333</v>
@@ -12185,7 +11832,7 @@
     </row>
     <row r="105">
       <c r="A105" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B105">
         <v>121</v>
@@ -12193,7 +11840,7 @@
     </row>
     <row r="106">
       <c r="A106" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B106">
         <v>93</v>
@@ -12201,7 +11848,7 @@
     </row>
     <row r="107">
       <c r="A107" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B107">
         <v>119</v>
@@ -12209,7 +11856,7 @@
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>224</v>
@@ -12217,7 +11864,7 @@
     </row>
     <row r="109">
       <c r="A109" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B109">
         <v>73</v>
@@ -12225,7 +11872,7 @@
     </row>
     <row r="110">
       <c r="A110" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B110">
         <v>74</v>
@@ -12233,7 +11880,7 @@
     </row>
     <row r="111">
       <c r="A111" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B111">
         <v>77</v>
@@ -12249,7 +11896,7 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B113">
         <v>856</v>
@@ -12257,7 +11904,7 @@
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B114">
         <v>305</v>
@@ -12265,7 +11912,7 @@
     </row>
     <row r="115">
       <c r="A115" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B115">
         <v>104</v>
@@ -12273,7 +11920,7 @@
     </row>
     <row r="116">
       <c r="A116" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B116">
         <v>104</v>
@@ -12281,7 +11928,7 @@
     </row>
     <row r="117">
       <c r="A117" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B117">
         <v>97</v>
@@ -12289,7 +11936,7 @@
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B118">
         <v>306</v>
@@ -12297,7 +11944,7 @@
     </row>
     <row r="119">
       <c r="A119" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B119">
         <v>113</v>
@@ -12305,7 +11952,7 @@
     </row>
     <row r="120">
       <c r="A120" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B120">
         <v>92</v>
@@ -12313,7 +11960,7 @@
     </row>
     <row r="121">
       <c r="A121" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B121">
         <v>101</v>
@@ -12321,7 +11968,7 @@
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B122">
         <v>245</v>
@@ -12329,7 +11976,7 @@
     </row>
     <row r="123">
       <c r="A123" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B123">
         <v>72</v>
@@ -12337,7 +11984,7 @@
     </row>
     <row r="124">
       <c r="A124" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B124">
         <v>71</v>
@@ -12345,7 +11992,7 @@
     </row>
     <row r="125">
       <c r="A125" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B125">
         <v>102</v>
@@ -12353,7 +12000,7 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B126">
         <v>872</v>
@@ -12361,7 +12008,7 @@
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B127">
         <v>305</v>
@@ -12369,7 +12016,7 @@
     </row>
     <row r="128">
       <c r="A128" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B128">
         <v>102</v>
@@ -12377,7 +12024,7 @@
     </row>
     <row r="129">
       <c r="A129" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B129">
         <v>104</v>
@@ -12385,7 +12032,7 @@
     </row>
     <row r="130">
       <c r="A130" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B130">
         <v>99</v>
@@ -12393,7 +12040,7 @@
     </row>
     <row r="131">
       <c r="A131" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B131">
         <v>303</v>
@@ -12401,7 +12048,7 @@
     </row>
     <row r="132">
       <c r="A132" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B132">
         <v>101</v>
@@ -12409,7 +12056,7 @@
     </row>
     <row r="133">
       <c r="A133" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B133">
         <v>94</v>
@@ -12417,7 +12064,7 @@
     </row>
     <row r="134">
       <c r="A134" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B134">
         <v>108</v>
@@ -12425,7 +12072,7 @@
     </row>
     <row r="135">
       <c r="A135" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B135">
         <v>264</v>
@@ -12433,7 +12080,7 @@
     </row>
     <row r="136">
       <c r="A136" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B136">
         <v>75</v>
@@ -12441,7 +12088,7 @@
     </row>
     <row r="137">
       <c r="A137" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B137">
         <v>73</v>
@@ -12449,7 +12096,7 @@
     </row>
     <row r="138">
       <c r="A138" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B138">
         <v>116</v>
